--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StolenByGogizh" sheetId="1" r:id="rId1"/>
     <sheet name="GENERAL" sheetId="6" r:id="rId2"/>
     <sheet name="SENSORS" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="134">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -352,13 +352,91 @@
   </si>
   <si>
     <t>1WIRE</t>
+  </si>
+  <si>
+    <t>DAT0</t>
+  </si>
+  <si>
+    <t>DAT1</t>
+  </si>
+  <si>
+    <t>DAT2</t>
+  </si>
+  <si>
+    <t>DAT3</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>GNSS</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>--help</t>
+  </si>
+  <si>
+    <t>MCU L</t>
+  </si>
+  <si>
+    <t>MCU R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,8 +466,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,6 +1308,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,6 +1407,87 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,78 +1497,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,72 +1515,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,6 +1569,60 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1473,136 +1704,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1918,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,16 +2184,16 @@
       <c r="M2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="147" t="s">
+      <c r="N2" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1"/>
@@ -2088,10 +2248,10 @@
       <c r="M3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="129"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="138"/>
       <c r="R3" s="1"/>
       <c r="S3" s="23" t="s">
         <v>79</v>
@@ -2144,12 +2304,12 @@
       <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="172" t="s">
+      <c r="N4" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="174"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="147"/>
       <c r="R4" s="1"/>
       <c r="S4" s="13"/>
       <c r="T4" s="9" t="s">
@@ -2192,12 +2352,12 @@
       <c r="M5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="136" t="s">
+      <c r="N5" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
       <c r="R5" s="1"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
@@ -2232,16 +2392,16 @@
       <c r="M6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="147" t="s">
+      <c r="N6" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1"/>
@@ -2275,12 +2435,12 @@
       <c r="M7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="136" t="s">
+      <c r="N7" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="138"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="141"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2312,12 +2472,12 @@
       <c r="M8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="148" t="s">
+      <c r="N8" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="144"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2349,16 +2509,16 @@
       <c r="M9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="147" t="s">
+      <c r="N9" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="1"/>
@@ -2394,10 +2554,10 @@
       <c r="M10" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2429,12 +2589,12 @@
       <c r="M11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="175" t="s">
+      <c r="N11" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="177"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="150"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2466,12 +2626,12 @@
       <c r="M12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="121" t="s">
+      <c r="N12" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="123"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2503,16 +2663,16 @@
       <c r="M13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="147" t="s">
+      <c r="N13" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="1"/>
@@ -2546,10 +2706,10 @@
       <c r="M14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="127"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="129"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2581,12 +2741,12 @@
       <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="124" t="s">
+      <c r="N15" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2618,12 +2778,12 @@
       <c r="M16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="130" t="s">
+      <c r="N16" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="132"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="171"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2655,12 +2815,12 @@
       <c r="M17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="121" t="s">
+      <c r="N17" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="123"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="153"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2692,16 +2852,16 @@
       <c r="M18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="157" t="s">
+      <c r="N18" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="158" t="s">
+      <c r="O18" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="158" t="s">
+      <c r="P18" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="159" t="s">
+      <c r="Q18" s="156" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="1"/>
@@ -2735,12 +2895,12 @@
       <c r="M19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="136" t="s">
+      <c r="N19" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="138"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="141"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2772,12 +2932,12 @@
       <c r="M20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="136" t="s">
+      <c r="N20" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="138"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="141"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2809,16 +2969,16 @@
       <c r="M21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="160" t="s">
+      <c r="N21" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="161" t="s">
+      <c r="O21" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="161" t="s">
+      <c r="P21" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="162" t="s">
+      <c r="Q21" s="159" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="1"/>
@@ -2852,10 +3012,10 @@
       <c r="M22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="127"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="129"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2887,12 +3047,12 @@
       <c r="M23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="169" t="s">
+      <c r="N23" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="171"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="168"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2924,12 +3084,12 @@
       <c r="M24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="123"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="153"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2961,16 +3121,16 @@
       <c r="M25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="157" t="s">
+      <c r="N25" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="158" t="s">
+      <c r="O25" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="158" t="s">
+      <c r="P25" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="159" t="s">
+      <c r="Q25" s="156" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1"/>
@@ -3004,16 +3164,16 @@
       <c r="M26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="163" t="s">
+      <c r="N26" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="164" t="s">
+      <c r="O26" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="164" t="s">
+      <c r="P26" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="165" t="s">
+      <c r="Q26" s="162" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1"/>
@@ -3047,10 +3207,10 @@
       <c r="M27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="127"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="129"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3082,10 +3242,10 @@
       <c r="M28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="127"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="129"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3117,12 +3277,12 @@
       <c r="M29" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="121" t="s">
+      <c r="N29" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="153"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3154,16 +3314,16 @@
       <c r="M30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="160" t="s">
+      <c r="N30" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="161" t="s">
+      <c r="O30" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="161" t="s">
+      <c r="P30" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="162" t="s">
+      <c r="Q30" s="159" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3197,12 +3357,12 @@
       <c r="M31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="121" t="s">
+      <c r="N31" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="153"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3234,12 +3394,12 @@
       <c r="M32" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="166" t="s">
+      <c r="N32" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="167"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="168"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="165"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3271,16 +3431,16 @@
       <c r="M33" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="160" t="s">
+      <c r="N33" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="161" t="s">
+      <c r="O33" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="161" t="s">
+      <c r="P33" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="162" t="s">
+      <c r="Q33" s="159" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -3314,12 +3474,12 @@
       <c r="M34" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="142" t="s">
+      <c r="N34" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="144"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="180"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3351,12 +3511,12 @@
       <c r="M35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="124" t="s">
+      <c r="N35" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="126"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="183"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3388,10 +3548,10 @@
       <c r="M36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="129"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="138"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3423,10 +3583,10 @@
       <c r="M37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="127"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="129"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="138"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3458,16 +3618,16 @@
       <c r="M38" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="147" t="s">
+      <c r="N38" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R38" s="1"/>
@@ -3501,10 +3661,10 @@
       <c r="M39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="133"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="135"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="174"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3536,12 +3696,12 @@
       <c r="M40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="136" t="s">
+      <c r="N40" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="138"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="141"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3573,12 +3733,12 @@
       <c r="M41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="139" t="s">
+      <c r="N41" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="141"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="177"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3610,16 +3770,16 @@
       <c r="M42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="147" t="s">
+      <c r="N42" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="1"/>
@@ -3653,12 +3813,12 @@
       <c r="M43" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="148" t="s">
+      <c r="N43" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="149"/>
-      <c r="P43" s="149"/>
-      <c r="Q43" s="150"/>
+      <c r="O43" s="143"/>
+      <c r="P43" s="143"/>
+      <c r="Q43" s="144"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3690,10 +3850,10 @@
       <c r="M44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="151"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="152"/>
-      <c r="Q44" s="153"/>
+      <c r="N44" s="184"/>
+      <c r="O44" s="185"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="186"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3725,16 +3885,16 @@
       <c r="M45" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="147" t="s">
+      <c r="N45" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -3768,12 +3928,12 @@
       <c r="M46" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="154" t="s">
+      <c r="N46" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="156"/>
+      <c r="O46" s="188"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="189"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3805,12 +3965,12 @@
       <c r="M47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="130" t="s">
+      <c r="N47" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="O47" s="131"/>
-      <c r="P47" s="131"/>
-      <c r="Q47" s="132"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="171"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -3842,10 +4002,10 @@
       <c r="M48" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="127"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="137"/>
+      <c r="Q48" s="138"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -3877,16 +4037,16 @@
       <c r="M49" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="146" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="147" t="s">
+      <c r="N49" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="135" t="s">
         <v>4</v>
       </c>
       <c r="R49" s="1"/>
@@ -6027,18 +6187,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N18:Q18"/>
@@ -6055,25 +6222,18 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6084,8 +6244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6165,12 +6325,12 @@
       <c r="F2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="182" t="s">
+      <c r="G2" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
       <c r="K2" s="1"/>
       <c r="L2" s="117" t="s">
         <v>80</v>
@@ -6212,10 +6372,10 @@
       <c r="F3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="231"/>
       <c r="K3" s="1"/>
       <c r="L3" s="117" t="s">
         <v>28</v>
@@ -6257,12 +6417,12 @@
       <c r="F4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="234"/>
       <c r="K4" s="1"/>
       <c r="L4" s="117" t="s">
         <v>45</v>
@@ -6280,10 +6440,10 @@
       <c r="R4" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="111" t="s">
+      <c r="T4" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="111" t="s">
+      <c r="U4" s="118" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6304,10 +6464,10 @@
       <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="191"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="193"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="237"/>
       <c r="K5" s="1"/>
       <c r="L5" s="117" t="s">
         <v>36</v>
@@ -6349,12 +6509,12 @@
       <c r="F6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="194" t="s">
+      <c r="G6" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="240"/>
       <c r="K6" s="1"/>
       <c r="L6" s="117" t="s">
         <v>52</v>
@@ -6396,10 +6556,10 @@
       <c r="F7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="243"/>
       <c r="K7" s="1"/>
       <c r="L7" s="117" t="s">
         <v>43</v>
@@ -6435,12 +6595,12 @@
       <c r="F8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="200" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="G8" s="244" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="246"/>
       <c r="K8" s="1"/>
       <c r="L8" s="117" t="s">
         <v>44</v>
@@ -6476,10 +6636,10 @@
       <c r="F9" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="203"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="249"/>
       <c r="K9" s="1"/>
       <c r="L9" s="117" t="s">
         <v>25</v>
@@ -6515,10 +6675,10 @@
       <c r="F10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="1"/>
       <c r="L10" s="117" t="s">
         <v>89</v>
@@ -6554,10 +6714,10 @@
       <c r="F11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="203"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="249"/>
       <c r="K11" s="1"/>
       <c r="L11" s="117" t="s">
         <v>49</v>
@@ -6593,10 +6753,10 @@
       <c r="F12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="203"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="249"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6624,10 +6784,10 @@
       <c r="F13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="203"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="205"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="249"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6655,10 +6815,10 @@
       <c r="F14" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="203"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="205"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="249"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6681,10 +6841,10 @@
       <c r="F15" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="206"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6707,18 +6867,18 @@
       <c r="F16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="179" t="s">
+      <c r="G16" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="P16" s="26"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
         <v>21</v>
       </c>
@@ -6735,18 +6895,18 @@
       <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="209" t="s">
+      <c r="G17" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="225"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="108" t="s">
         <v>30</v>
       </c>
@@ -6763,18 +6923,29 @@
       <c r="F18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="212" t="s">
+      <c r="G18" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="192"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="274"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
         <v>29</v>
       </c>
@@ -6791,18 +6962,31 @@
       <c r="F19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="215" t="s">
+      <c r="G19" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="217"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="195"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
         <v>80</v>
       </c>
@@ -6819,18 +7003,31 @@
       <c r="F20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="218" t="s">
+      <c r="G20" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="220"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="253" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="106" t="s">
         <v>28</v>
       </c>
@@ -6847,18 +7044,31 @@
       <c r="F21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="218" t="s">
+      <c r="G21" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="220"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="272" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="273" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>45</v>
       </c>
@@ -6875,18 +7085,25 @@
       <c r="F22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="218" t="s">
+      <c r="G22" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="220"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="275" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>36</v>
       </c>
@@ -6903,18 +7120,18 @@
       <c r="F23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="218" t="s">
+      <c r="G23" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="220"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
         <v>52</v>
       </c>
@@ -6931,18 +7148,18 @@
       <c r="F24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="218" t="s">
+      <c r="G24" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="220"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="P24" s="26"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="108" t="s">
         <v>43</v>
       </c>
@@ -6959,18 +7176,18 @@
       <c r="F25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="218" t="s">
+      <c r="G25" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="220"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>44</v>
       </c>
@@ -6987,18 +7204,18 @@
       <c r="F26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="218" t="s">
+      <c r="G26" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="220"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="P26" s="26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="104" t="s">
         <v>47</v>
       </c>
@@ -7015,18 +7232,18 @@
       <c r="F27" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="179" t="s">
+      <c r="G27" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="P27" s="26"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
         <v>38</v>
       </c>
@@ -7043,18 +7260,18 @@
       <c r="F28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="P28" s="26"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="103" t="s">
         <v>48</v>
       </c>
@@ -7071,17 +7288,17 @@
       <c r="F29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="221" t="s">
+      <c r="G29" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="223"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="198"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="104" t="s">
         <v>27</v>
       </c>
@@ -7098,17 +7315,17 @@
       <c r="F30" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="179" t="s">
+      <c r="G30" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="104" t="s">
         <v>35</v>
       </c>
@@ -7125,17 +7342,17 @@
       <c r="F31" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="111" t="s">
         <v>34</v>
       </c>
@@ -7152,12 +7369,12 @@
       <c r="F32" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="224" t="s">
+      <c r="G32" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
-      <c r="J32" s="226"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7179,12 +7396,12 @@
       <c r="F33" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="227" t="s">
+      <c r="G33" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="229"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="222"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7206,12 +7423,12 @@
       <c r="F34" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="218" t="s">
+      <c r="G34" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="220"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7233,12 +7450,12 @@
       <c r="F35" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="218" t="s">
+      <c r="G35" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="220"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7260,12 +7477,12 @@
       <c r="F36" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="179" t="s">
+      <c r="G36" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7287,12 +7504,12 @@
       <c r="F37" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="218" t="s">
+      <c r="G37" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="220"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7314,12 +7531,12 @@
       <c r="F38" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="230" t="s">
+      <c r="G38" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="231"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="210"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7341,12 +7558,12 @@
       <c r="F39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="233" t="s">
+      <c r="G39" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="235"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="213"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7368,12 +7585,12 @@
       <c r="F40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="236" t="s">
+      <c r="G40" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="237"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="238"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7395,12 +7612,12 @@
       <c r="F41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="239" t="s">
+      <c r="G41" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="241"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="201"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7422,12 +7639,12 @@
       <c r="F42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="239" t="s">
+      <c r="G42" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="240"/>
-      <c r="I42" s="240"/>
-      <c r="J42" s="241"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7449,12 +7666,12 @@
       <c r="F43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="239" t="s">
+      <c r="G43" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="240"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
+      <c r="H43" s="200"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="201"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7476,12 +7693,12 @@
       <c r="F44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="239" t="s">
+      <c r="G44" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="201"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7503,12 +7720,12 @@
       <c r="F45" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="240"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="241"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="201"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7530,12 +7747,12 @@
       <c r="F46" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="239" t="s">
+      <c r="G46" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="240"/>
-      <c r="I46" s="240"/>
-      <c r="J46" s="241"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="201"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7557,12 +7774,12 @@
       <c r="F47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="212" t="s">
+      <c r="G47" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="214"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="192"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7584,12 +7801,12 @@
       <c r="F48" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="215" t="s">
+      <c r="G48" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="216"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="217"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7611,12 +7828,12 @@
       <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="221" t="s">
+      <c r="G49" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="222"/>
-      <c r="I49" s="222"/>
-      <c r="J49" s="223"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7660,6 +7877,35 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="G8:J15"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="G49:J49"/>
@@ -7669,35 +7915,6 @@
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="G8:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -7706,10 +7923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7717,15 +7934,18 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="124" t="s">
+        <v>100</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7739,240 +7959,309 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="244" t="s">
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="124" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="245" t="s">
+      <c r="H2" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="242" t="s">
+      <c r="I2" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="120" t="s">
+      <c r="J2" s="256"/>
+      <c r="K2" s="264" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="123"/>
+      <c r="N2" s="265" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="261"/>
+      <c r="Q2" s="266" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="267" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="261"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="270" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="270" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="257" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="263" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="256"/>
+      <c r="K3" s="259" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="262" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="259" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="271" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="271" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="120" t="s">
+      <c r="I4" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="256"/>
+      <c r="K4" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="271" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="271" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA2" s="120" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="243" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="247" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="250" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="248" t="s">
+      <c r="I5" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="178" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="248" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>41</v>
+      </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="178" t="s">
+      <c r="N5" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="271" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="271" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="121" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="120"/>
+      <c r="F6" s="120" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="248" t="s">
+      <c r="I6" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="120"/>
+      <c r="J6" s="256"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N6" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="178" t="s">
+      <c r="B7" s="271" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="121" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="120"/>
+      <c r="F7" s="120" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="251" t="s">
+      <c r="I7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="120"/>
+      <c r="J7" s="256"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N7" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="255" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="271" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="252" t="s">
+      <c r="I8" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="256"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N8" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="255" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="246" t="s">
+      <c r="H9" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="248" t="s">
+      <c r="I9" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="120"/>
+      <c r="J9" s="256"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N9" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="255" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7986,12 +8275,8 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -8005,17 +8290,16 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="117" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="269" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="123"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -8024,151 +8308,94 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="G13" s="268" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G14" s="254" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G15" s="254" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="G16" s="254" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="G17" s="254" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="120" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="120" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="G19" s="254" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="120" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -8179,13 +8406,8 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -8196,9 +8418,6 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -8213,9 +8432,6 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -8230,9 +8446,6 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -8247,5 +8460,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StolenByGogizh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="134">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -1344,366 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,6 +1403,366 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2184,16 +2184,16 @@
       <c r="M2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="135" t="s">
+      <c r="N2" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1"/>
@@ -2248,10 +2248,10 @@
       <c r="M3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="138"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
       <c r="R3" s="1"/>
       <c r="S3" s="23" t="s">
         <v>79</v>
@@ -2304,12 +2304,12 @@
       <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="147"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
       <c r="R4" s="1"/>
       <c r="S4" s="13"/>
       <c r="T4" s="9" t="s">
@@ -2352,12 +2352,12 @@
       <c r="M5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="164"/>
       <c r="R5" s="1"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
@@ -2392,16 +2392,16 @@
       <c r="M6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="135" t="s">
+      <c r="N6" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1"/>
@@ -2435,12 +2435,12 @@
       <c r="M7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="139" t="s">
+      <c r="N7" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="141"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="164"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2472,12 +2472,12 @@
       <c r="M8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="142" t="s">
+      <c r="N8" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="167"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2509,16 +2509,16 @@
       <c r="M9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="135" t="s">
+      <c r="N9" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="1"/>
@@ -2554,10 +2554,10 @@
       <c r="M10" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="136"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="138"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="161"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2589,12 +2589,12 @@
       <c r="M11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="148" t="s">
+      <c r="N11" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="150"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2626,12 +2626,12 @@
       <c r="M12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="151" t="s">
+      <c r="N12" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="153"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="176"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2663,16 +2663,16 @@
       <c r="M13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="135" t="s">
+      <c r="N13" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="1"/>
@@ -2706,10 +2706,10 @@
       <c r="M14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="138"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="161"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2741,12 +2741,12 @@
       <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="181" t="s">
+      <c r="N15" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="183"/>
+      <c r="O15" s="205"/>
+      <c r="P15" s="205"/>
+      <c r="Q15" s="206"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2778,12 +2778,12 @@
       <c r="M16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="169" t="s">
+      <c r="N16" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="171"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="194"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2815,12 +2815,12 @@
       <c r="M17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="151" t="s">
+      <c r="N17" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="153"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="176"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2852,16 +2852,16 @@
       <c r="M18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="154" t="s">
+      <c r="N18" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="155" t="s">
+      <c r="O18" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="155" t="s">
+      <c r="P18" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="156" t="s">
+      <c r="Q18" s="179" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="1"/>
@@ -2895,12 +2895,12 @@
       <c r="M19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="139" t="s">
+      <c r="N19" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="141"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="164"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2932,12 +2932,12 @@
       <c r="M20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="139" t="s">
+      <c r="N20" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="141"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="164"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2969,16 +2969,16 @@
       <c r="M21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="157" t="s">
+      <c r="N21" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="158" t="s">
+      <c r="O21" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="158" t="s">
+      <c r="P21" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="159" t="s">
+      <c r="Q21" s="182" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="1"/>
@@ -3012,10 +3012,10 @@
       <c r="M22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="136"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="138"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3047,12 +3047,12 @@
       <c r="M23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="166" t="s">
+      <c r="N23" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="167"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="168"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="191"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3084,12 +3084,12 @@
       <c r="M24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="151" t="s">
+      <c r="N24" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="153"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="176"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3121,16 +3121,16 @@
       <c r="M25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="154" t="s">
+      <c r="N25" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="155" t="s">
+      <c r="O25" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="155" t="s">
+      <c r="P25" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="156" t="s">
+      <c r="Q25" s="179" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1"/>
@@ -3164,16 +3164,16 @@
       <c r="M26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="160" t="s">
+      <c r="N26" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="161" t="s">
+      <c r="O26" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="161" t="s">
+      <c r="P26" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="162" t="s">
+      <c r="Q26" s="185" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1"/>
@@ -3207,10 +3207,10 @@
       <c r="M27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="136"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="138"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="161"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3242,10 +3242,10 @@
       <c r="M28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="138"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="161"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3277,12 +3277,12 @@
       <c r="M29" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="151" t="s">
+      <c r="N29" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="153"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="176"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3314,16 +3314,16 @@
       <c r="M30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="157" t="s">
+      <c r="N30" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="158" t="s">
+      <c r="O30" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="158" t="s">
+      <c r="P30" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="159" t="s">
+      <c r="Q30" s="182" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3357,12 +3357,12 @@
       <c r="M31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="151" t="s">
+      <c r="N31" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="153"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="176"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3394,12 +3394,12 @@
       <c r="M32" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="163" t="s">
+      <c r="N32" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="165"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="188"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3431,16 +3431,16 @@
       <c r="M33" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="157" t="s">
+      <c r="N33" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="158" t="s">
+      <c r="O33" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="158" t="s">
+      <c r="P33" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="159" t="s">
+      <c r="Q33" s="182" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -3474,12 +3474,12 @@
       <c r="M34" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="178" t="s">
+      <c r="N34" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="179"/>
-      <c r="P34" s="179"/>
-      <c r="Q34" s="180"/>
+      <c r="O34" s="202"/>
+      <c r="P34" s="202"/>
+      <c r="Q34" s="203"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3511,12 +3511,12 @@
       <c r="M35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="181" t="s">
+      <c r="N35" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="183"/>
+      <c r="O35" s="205"/>
+      <c r="P35" s="205"/>
+      <c r="Q35" s="206"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3548,10 +3548,10 @@
       <c r="M36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="136"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="138"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="161"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3583,10 +3583,10 @@
       <c r="M37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="136"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="138"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="160"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="161"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3618,16 +3618,16 @@
       <c r="M38" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="135" t="s">
+      <c r="N38" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R38" s="1"/>
@@ -3661,10 +3661,10 @@
       <c r="M39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="172"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="174"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="196"/>
+      <c r="Q39" s="197"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3696,12 +3696,12 @@
       <c r="M40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="139" t="s">
+      <c r="N40" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="141"/>
+      <c r="O40" s="163"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="164"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3733,12 +3733,12 @@
       <c r="M41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="175" t="s">
+      <c r="N41" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="177"/>
+      <c r="O41" s="199"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="200"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3770,16 +3770,16 @@
       <c r="M42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="135" t="s">
+      <c r="N42" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="1"/>
@@ -3813,12 +3813,12 @@
       <c r="M43" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="142" t="s">
+      <c r="N43" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="143"/>
-      <c r="P43" s="143"/>
-      <c r="Q43" s="144"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="167"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3850,10 +3850,10 @@
       <c r="M44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="184"/>
-      <c r="O44" s="185"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="186"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="208"/>
+      <c r="P44" s="208"/>
+      <c r="Q44" s="209"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3885,16 +3885,16 @@
       <c r="M45" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="135" t="s">
+      <c r="N45" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -3928,12 +3928,12 @@
       <c r="M46" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="187" t="s">
+      <c r="N46" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188"/>
-      <c r="Q46" s="189"/>
+      <c r="O46" s="211"/>
+      <c r="P46" s="211"/>
+      <c r="Q46" s="212"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3965,12 +3965,12 @@
       <c r="M47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="169" t="s">
+      <c r="N47" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="171"/>
+      <c r="O47" s="193"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="194"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4002,10 +4002,10 @@
       <c r="M48" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="136"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="137"/>
-      <c r="Q48" s="138"/>
+      <c r="N48" s="159"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="161"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4037,16 +4037,16 @@
       <c r="M49" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="134" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="135" t="s">
+      <c r="N49" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="158" t="s">
         <v>4</v>
       </c>
       <c r="R49" s="1"/>
@@ -6325,12 +6325,12 @@
       <c r="F2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="226" t="s">
+      <c r="G2" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="251"/>
       <c r="K2" s="1"/>
       <c r="L2" s="117" t="s">
         <v>80</v>
@@ -6372,10 +6372,10 @@
       <c r="F3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="229"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="231"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
       <c r="K3" s="1"/>
       <c r="L3" s="117" t="s">
         <v>28</v>
@@ -6417,12 +6417,12 @@
       <c r="F4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="232" t="s">
+      <c r="G4" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="234"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="257"/>
       <c r="K4" s="1"/>
       <c r="L4" s="117" t="s">
         <v>45</v>
@@ -6464,10 +6464,10 @@
       <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="235"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="237"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="260"/>
       <c r="K5" s="1"/>
       <c r="L5" s="117" t="s">
         <v>36</v>
@@ -6509,12 +6509,12 @@
       <c r="F6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="238" t="s">
+      <c r="G6" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="240"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="263"/>
       <c r="K6" s="1"/>
       <c r="L6" s="117" t="s">
         <v>52</v>
@@ -6556,10 +6556,10 @@
       <c r="F7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="241"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="243"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="266"/>
       <c r="K7" s="1"/>
       <c r="L7" s="117" t="s">
         <v>43</v>
@@ -6595,12 +6595,12 @@
       <c r="F8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="244" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="245"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="246"/>
+      <c r="G8" s="267" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="268"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
       <c r="K8" s="1"/>
       <c r="L8" s="117" t="s">
         <v>44</v>
@@ -6636,10 +6636,10 @@
       <c r="F9" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="247"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="249"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
       <c r="K9" s="1"/>
       <c r="L9" s="117" t="s">
         <v>25</v>
@@ -6675,10 +6675,10 @@
       <c r="F10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="247"/>
-      <c r="H10" s="248"/>
-      <c r="I10" s="248"/>
-      <c r="J10" s="249"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
       <c r="K10" s="1"/>
       <c r="L10" s="117" t="s">
         <v>89</v>
@@ -6714,10 +6714,10 @@
       <c r="F11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="247"/>
-      <c r="H11" s="248"/>
-      <c r="I11" s="248"/>
-      <c r="J11" s="249"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="272"/>
       <c r="K11" s="1"/>
       <c r="L11" s="117" t="s">
         <v>49</v>
@@ -6753,10 +6753,10 @@
       <c r="F12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="247"/>
-      <c r="H12" s="248"/>
-      <c r="I12" s="248"/>
-      <c r="J12" s="249"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="271"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="272"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6784,10 +6784,10 @@
       <c r="F13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="247"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="249"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="272"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6815,10 +6815,10 @@
       <c r="F14" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="247"/>
-      <c r="H14" s="248"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="249"/>
+      <c r="G14" s="270"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="272"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6841,10 +6841,10 @@
       <c r="F15" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="250"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="274"/>
+      <c r="J15" s="275"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6867,12 +6867,12 @@
       <c r="F16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="205" t="s">
+      <c r="G16" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="230"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6895,12 +6895,12 @@
       <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="223" t="s">
+      <c r="G17" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="225"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="248"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6923,12 +6923,12 @@
       <c r="F18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="190" t="s">
+      <c r="G18" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="215"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="120" t="s">
@@ -6943,7 +6943,7 @@
       <c r="P18" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="274"/>
+      <c r="Q18" s="154"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
@@ -6962,12 +6962,12 @@
       <c r="F19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="193" t="s">
+      <c r="G19" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="195"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="218"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="99" t="s">
@@ -7003,15 +7003,15 @@
       <c r="F20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="202" t="s">
+      <c r="G20" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="239"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="253" t="s">
+      <c r="M20" s="133" t="s">
         <v>61</v>
       </c>
       <c r="N20" s="114" t="s">
@@ -7044,21 +7044,21 @@
       <c r="F21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="202" t="s">
+      <c r="G21" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="239"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="272" t="s">
+      <c r="M21" s="152" t="s">
         <v>62</v>
       </c>
       <c r="N21" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="273" t="s">
+      <c r="O21" s="153" t="s">
         <v>66</v>
       </c>
       <c r="P21" s="115" t="s">
@@ -7085,23 +7085,23 @@
       <c r="F22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="202" t="s">
+      <c r="G22" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="239"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="275" t="s">
+      <c r="M22" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="258" t="s">
+      <c r="N22" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="136"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
@@ -7120,12 +7120,12 @@
       <c r="F23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="202" t="s">
+      <c r="G23" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -7148,12 +7148,12 @@
       <c r="F24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="202" t="s">
+      <c r="G24" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="204"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="239"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7176,12 +7176,12 @@
       <c r="F25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="202" t="s">
+      <c r="G25" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="204"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="239"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7204,12 +7204,12 @@
       <c r="F26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="202" t="s">
+      <c r="G26" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="204"/>
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="239"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7232,12 +7232,12 @@
       <c r="F27" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="205" t="s">
+      <c r="G27" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="230"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7260,12 +7260,12 @@
       <c r="F28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="205" t="s">
+      <c r="G28" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="230"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7288,12 +7288,12 @@
       <c r="F29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="196" t="s">
+      <c r="G29" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="198"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7315,12 +7315,12 @@
       <c r="F30" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="205" t="s">
+      <c r="G30" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="230"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7342,12 +7342,12 @@
       <c r="F31" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="205" t="s">
+      <c r="G31" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="206"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="230"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7369,12 +7369,12 @@
       <c r="F32" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="217" t="s">
+      <c r="G32" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="219"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="233"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7396,12 +7396,12 @@
       <c r="F33" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="220" t="s">
+      <c r="G33" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="222"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="236"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7423,12 +7423,12 @@
       <c r="F34" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="202" t="s">
+      <c r="G34" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="204"/>
+      <c r="H34" s="238"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="239"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7450,12 +7450,12 @@
       <c r="F35" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="202" t="s">
+      <c r="G35" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
+      <c r="H35" s="238"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="239"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7477,12 +7477,12 @@
       <c r="F36" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="205" t="s">
+      <c r="G36" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="230"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7504,12 +7504,12 @@
       <c r="F37" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="202" t="s">
+      <c r="G37" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
+      <c r="H37" s="238"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="239"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7531,12 +7531,12 @@
       <c r="F38" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="208" t="s">
+      <c r="G38" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="210"/>
+      <c r="H38" s="241"/>
+      <c r="I38" s="241"/>
+      <c r="J38" s="242"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7558,12 +7558,12 @@
       <c r="F39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="211" t="s">
+      <c r="G39" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="213"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="245"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7585,12 +7585,12 @@
       <c r="F40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="214" t="s">
+      <c r="G40" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="227"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7612,12 +7612,12 @@
       <c r="F41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="199" t="s">
+      <c r="G41" s="222" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="201"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="224"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7639,12 +7639,12 @@
       <c r="F42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="199" t="s">
+      <c r="G42" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="224"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7666,12 +7666,12 @@
       <c r="F43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="199" t="s">
+      <c r="G43" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="200"/>
-      <c r="I43" s="200"/>
-      <c r="J43" s="201"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="224"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7693,12 +7693,12 @@
       <c r="F44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="199" t="s">
+      <c r="G44" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="224"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7720,12 +7720,12 @@
       <c r="F45" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="199" t="s">
+      <c r="G45" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="200"/>
-      <c r="I45" s="200"/>
-      <c r="J45" s="201"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="224"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7747,12 +7747,12 @@
       <c r="F46" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="199" t="s">
+      <c r="G46" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="201"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="223"/>
+      <c r="J46" s="224"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7774,12 +7774,12 @@
       <c r="F47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="190" t="s">
+      <c r="G47" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="191"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="192"/>
+      <c r="H47" s="214"/>
+      <c r="I47" s="214"/>
+      <c r="J47" s="215"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7801,12 +7801,12 @@
       <c r="F48" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="193" t="s">
+      <c r="G48" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="218"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7828,12 +7828,12 @@
       <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="196" t="s">
+      <c r="G49" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="197"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="221"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7923,10 +7923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7982,34 +7982,34 @@
       <c r="I2" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="256"/>
-      <c r="K2" s="264" t="s">
+      <c r="J2" s="136"/>
+      <c r="K2" s="144" t="s">
         <v>65</v>
       </c>
       <c r="L2" s="123"/>
-      <c r="N2" s="265" t="s">
+      <c r="N2" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="261"/>
-      <c r="Q2" s="266" t="s">
+      <c r="O2" s="141"/>
+      <c r="Q2" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="267" t="s">
+      <c r="S2" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="T2" s="261"/>
+      <c r="T2" s="141"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="150" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="257" t="s">
+      <c r="E3" s="137" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="126" t="s">
@@ -8019,28 +8019,28 @@
       <c r="H3" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="263" t="s">
+      <c r="I3" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="259" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="139" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="262" t="s">
+      <c r="N3" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="255" t="s">
+      <c r="O3" s="135" t="s">
         <v>116</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="260" t="s">
+      <c r="Q3" s="140" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="259" t="s">
+      <c r="S3" s="139" t="s">
         <v>76</v>
       </c>
       <c r="T3" s="130" t="s">
@@ -8048,10 +8048,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="121" t="s">
@@ -8070,7 +8070,7 @@
       <c r="I4" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="256"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="98" t="s">
         <v>19</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="N4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="255" t="s">
+      <c r="O4" s="135" t="s">
         <v>117</v>
       </c>
       <c r="P4" s="1"/>
@@ -8095,10 +8095,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="271" t="s">
+      <c r="A5" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="151" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="121" t="s">
@@ -8117,7 +8117,7 @@
       <c r="I5" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="256"/>
+      <c r="J5" s="136"/>
       <c r="K5" s="98" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="N5" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="255" t="s">
+      <c r="O5" s="135" t="s">
         <v>118</v>
       </c>
       <c r="P5" s="1"/>
@@ -8136,10 +8136,10 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="271" t="s">
+      <c r="B6" s="151" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="121" t="s">
@@ -8158,14 +8158,14 @@
       <c r="I6" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="256"/>
+      <c r="J6" s="136"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="255" t="s">
+      <c r="O6" s="135" t="s">
         <v>119</v>
       </c>
       <c r="P6" s="1"/>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="151" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="121" t="s">
@@ -8193,14 +8193,14 @@
       <c r="I7" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="256"/>
+      <c r="J7" s="136"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="255" t="s">
+      <c r="O7" s="135" t="s">
         <v>121</v>
       </c>
       <c r="P7" s="1"/>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="271" t="s">
+      <c r="B8" s="151" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1"/>
@@ -8222,12 +8222,12 @@
       <c r="I8" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="256"/>
+      <c r="J8" s="136"/>
       <c r="M8" s="1"/>
       <c r="N8" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="255" t="s">
+      <c r="O8" s="135" t="s">
         <v>122</v>
       </c>
       <c r="P8" s="1"/>
@@ -8246,14 +8246,14 @@
       <c r="I9" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="256"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="O9" s="255" t="s">
+      <c r="O9" s="135" t="s">
         <v>124</v>
       </c>
       <c r="P9" s="1"/>
@@ -8296,12 +8296,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="269" t="s">
+      <c r="G12" s="149" t="s">
         <v>131</v>
       </c>
       <c r="H12" s="123"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -8310,11 +8309,9 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="268" t="s">
+      <c r="G13" s="148" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="120" t="s">
@@ -8323,11 +8320,9 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="254" t="s">
+      <c r="G14" s="134" t="s">
         <v>129</v>
       </c>
       <c r="H14" s="120" t="s">
@@ -8338,7 +8333,7 @@
       <c r="A15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="254" t="s">
+      <c r="G15" s="134" t="s">
         <v>126</v>
       </c>
       <c r="H15" s="120" t="s">
@@ -8349,50 +8344,51 @@
       <c r="A16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="254" t="s">
+      <c r="G16" s="134" t="s">
         <v>128</v>
       </c>
       <c r="H16" s="120" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="254" t="s">
+      <c r="G17" s="134" t="s">
         <v>127</v>
       </c>
       <c r="H17" s="120" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="254"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="120" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="254" t="s">
+      <c r="G19" s="134" t="s">
         <v>130</v>
       </c>
       <c r="H19" s="120" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -8403,11 +8399,10 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -8416,10 +8411,8 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -8430,10 +8423,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -8444,10 +8434,8 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -8458,6 +8446,39 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>

--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StolenByGogizh" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="141">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -430,6 +430,27 @@
   </si>
   <si>
     <t>MCU R</t>
+  </si>
+  <si>
+    <t>ShiftReg</t>
+  </si>
+  <si>
+    <t>Latch</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -646,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -942,11 +963,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,6 +1471,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,24 +1552,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,6 +1561,69 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,121 +1642,103 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,6 +1759,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1603,6 +1786,42 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,157 +1831,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -2184,16 +2259,16 @@
       <c r="M2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="158" t="s">
+      <c r="N2" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1"/>
@@ -2248,10 +2323,10 @@
       <c r="M3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="159"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
       <c r="R3" s="1"/>
       <c r="S3" s="23" t="s">
         <v>79</v>
@@ -2304,12 +2379,12 @@
       <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="209"/>
       <c r="R4" s="1"/>
       <c r="S4" s="13"/>
       <c r="T4" s="9" t="s">
@@ -2352,12 +2427,12 @@
       <c r="M5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="162" t="s">
+      <c r="N5" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
       <c r="R5" s="1"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
@@ -2392,16 +2467,16 @@
       <c r="M6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="158" t="s">
+      <c r="N6" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1"/>
@@ -2435,12 +2510,12 @@
       <c r="M7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="162" t="s">
+      <c r="N7" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="164"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="173"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2472,12 +2547,12 @@
       <c r="M8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="165" t="s">
+      <c r="N8" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="167"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="185"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2509,16 +2584,16 @@
       <c r="M9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="158" t="s">
+      <c r="N9" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="1"/>
@@ -2554,10 +2629,10 @@
       <c r="M10" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="159"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="161"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="164"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2589,12 +2664,12 @@
       <c r="M11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="171" t="s">
+      <c r="N11" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="173"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="212"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2626,12 +2701,12 @@
       <c r="M12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="174" t="s">
+      <c r="N12" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="175"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="176"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="158"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2663,16 +2738,16 @@
       <c r="M13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="158" t="s">
+      <c r="N13" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="1"/>
@@ -2706,10 +2781,10 @@
       <c r="M14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="159"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="161"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="164"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2741,12 +2816,12 @@
       <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="204" t="s">
+      <c r="N15" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="205"/>
-      <c r="P15" s="205"/>
-      <c r="Q15" s="206"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="161"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2778,12 +2853,12 @@
       <c r="M16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="192" t="s">
+      <c r="N16" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="194"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2815,12 +2890,12 @@
       <c r="M17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="174" t="s">
+      <c r="N17" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="176"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="158"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2852,16 +2927,16 @@
       <c r="M18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="177" t="s">
+      <c r="N18" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="178" t="s">
+      <c r="O18" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="178" t="s">
+      <c r="P18" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="179" t="s">
+      <c r="Q18" s="194" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="1"/>
@@ -2895,12 +2970,12 @@
       <c r="M19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="162" t="s">
+      <c r="N19" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="164"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="173"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2932,12 +3007,12 @@
       <c r="M20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="162" t="s">
+      <c r="N20" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="164"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="173"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2969,16 +3044,16 @@
       <c r="M21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="180" t="s">
+      <c r="N21" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="181" t="s">
+      <c r="O21" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="181" t="s">
+      <c r="P21" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="182" t="s">
+      <c r="Q21" s="197" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="1"/>
@@ -3012,10 +3087,10 @@
       <c r="M22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="161"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="164"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3047,12 +3122,12 @@
       <c r="M23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="189" t="s">
+      <c r="N23" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="190"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="191"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="206"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3084,12 +3159,12 @@
       <c r="M24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="174" t="s">
+      <c r="N24" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="176"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="158"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3121,16 +3196,16 @@
       <c r="M25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="177" t="s">
+      <c r="N25" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="178" t="s">
+      <c r="O25" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="178" t="s">
+      <c r="P25" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="179" t="s">
+      <c r="Q25" s="194" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1"/>
@@ -3164,16 +3239,16 @@
       <c r="M26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="183" t="s">
+      <c r="N26" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="184" t="s">
+      <c r="O26" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="184" t="s">
+      <c r="P26" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="185" t="s">
+      <c r="Q26" s="200" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1"/>
@@ -3207,10 +3282,10 @@
       <c r="M27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="159"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="164"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3242,10 +3317,10 @@
       <c r="M28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="159"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="161"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="164"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3277,12 +3352,12 @@
       <c r="M29" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="174" t="s">
+      <c r="N29" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="176"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3314,16 +3389,16 @@
       <c r="M30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="180" t="s">
+      <c r="N30" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="181" t="s">
+      <c r="O30" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="181" t="s">
+      <c r="P30" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="182" t="s">
+      <c r="Q30" s="197" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3357,12 +3432,12 @@
       <c r="M31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="174" t="s">
+      <c r="N31" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="176"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="158"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3394,12 +3469,12 @@
       <c r="M32" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="186" t="s">
+      <c r="N32" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="188"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="203"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3431,16 +3506,16 @@
       <c r="M33" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="180" t="s">
+      <c r="N33" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="181" t="s">
+      <c r="O33" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="181" t="s">
+      <c r="P33" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="182" t="s">
+      <c r="Q33" s="197" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -3474,12 +3549,12 @@
       <c r="M34" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="201" t="s">
+      <c r="N34" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="202"/>
-      <c r="P34" s="202"/>
-      <c r="Q34" s="203"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
+      <c r="Q34" s="179"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3511,12 +3586,12 @@
       <c r="M35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="204" t="s">
+      <c r="N35" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="205"/>
-      <c r="P35" s="205"/>
-      <c r="Q35" s="206"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="161"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3548,10 +3623,10 @@
       <c r="M36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="159"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="161"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="163"/>
+      <c r="P36" s="163"/>
+      <c r="Q36" s="164"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3583,10 +3658,10 @@
       <c r="M37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="159"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="161"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="163"/>
+      <c r="P37" s="163"/>
+      <c r="Q37" s="164"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3618,16 +3693,16 @@
       <c r="M38" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="158" t="s">
+      <c r="N38" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R38" s="1"/>
@@ -3661,10 +3736,10 @@
       <c r="M39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="195"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
-      <c r="Q39" s="197"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="169"/>
+      <c r="P39" s="169"/>
+      <c r="Q39" s="170"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3696,12 +3771,12 @@
       <c r="M40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="162" t="s">
+      <c r="N40" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="164"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="173"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3733,12 +3808,12 @@
       <c r="M41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="198" t="s">
+      <c r="N41" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="199"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="200"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="176"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3770,16 +3845,16 @@
       <c r="M42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="158" t="s">
+      <c r="N42" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="1"/>
@@ -3813,12 +3888,12 @@
       <c r="M43" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="165" t="s">
+      <c r="N43" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="166"/>
-      <c r="P43" s="166"/>
-      <c r="Q43" s="167"/>
+      <c r="O43" s="184"/>
+      <c r="P43" s="184"/>
+      <c r="Q43" s="185"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3850,10 +3925,10 @@
       <c r="M44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="207"/>
-      <c r="O44" s="208"/>
-      <c r="P44" s="208"/>
-      <c r="Q44" s="209"/>
+      <c r="N44" s="186"/>
+      <c r="O44" s="187"/>
+      <c r="P44" s="187"/>
+      <c r="Q44" s="188"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3885,16 +3960,16 @@
       <c r="M45" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="158" t="s">
+      <c r="N45" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -3928,12 +4003,12 @@
       <c r="M46" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="211"/>
-      <c r="P46" s="211"/>
-      <c r="Q46" s="212"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="190"/>
+      <c r="Q46" s="191"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3965,12 +4040,12 @@
       <c r="M47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="192" t="s">
+      <c r="N47" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="O47" s="193"/>
-      <c r="P47" s="193"/>
-      <c r="Q47" s="194"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="167"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4002,10 +4077,10 @@
       <c r="M48" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="159"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="161"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="163"/>
+      <c r="P48" s="163"/>
+      <c r="Q48" s="164"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4037,16 +4112,16 @@
       <c r="M49" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="158" t="s">
+      <c r="N49" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="182" t="s">
         <v>4</v>
       </c>
       <c r="R49" s="1"/>
@@ -6187,25 +6262,18 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N18:Q18"/>
@@ -6222,18 +6290,25 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6325,12 +6400,12 @@
       <c r="F2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="251"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="218"/>
       <c r="K2" s="1"/>
       <c r="L2" s="117" t="s">
         <v>80</v>
@@ -6372,10 +6447,10 @@
       <c r="F3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="252"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="254"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="221"/>
       <c r="K3" s="1"/>
       <c r="L3" s="117" t="s">
         <v>28</v>
@@ -6417,12 +6492,12 @@
       <c r="F4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="255" t="s">
+      <c r="G4" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="257"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="224"/>
       <c r="K4" s="1"/>
       <c r="L4" s="117" t="s">
         <v>45</v>
@@ -6464,10 +6539,10 @@
       <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="258"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="259"/>
-      <c r="J5" s="260"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="227"/>
       <c r="K5" s="1"/>
       <c r="L5" s="117" t="s">
         <v>36</v>
@@ -6509,12 +6584,12 @@
       <c r="F6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="261" t="s">
+      <c r="G6" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="263"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="230"/>
       <c r="K6" s="1"/>
       <c r="L6" s="117" t="s">
         <v>52</v>
@@ -6556,10 +6631,10 @@
       <c r="F7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="266"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="233"/>
       <c r="K7" s="1"/>
       <c r="L7" s="117" t="s">
         <v>43</v>
@@ -6595,12 +6670,12 @@
       <c r="F8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="267" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
+      <c r="G8" s="234" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="236"/>
       <c r="K8" s="1"/>
       <c r="L8" s="117" t="s">
         <v>44</v>
@@ -6636,10 +6711,10 @@
       <c r="F9" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="270"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="271"/>
-      <c r="J9" s="272"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
       <c r="K9" s="1"/>
       <c r="L9" s="117" t="s">
         <v>25</v>
@@ -6675,10 +6750,10 @@
       <c r="F10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="270"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="272"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
       <c r="K10" s="1"/>
       <c r="L10" s="117" t="s">
         <v>89</v>
@@ -6714,10 +6789,10 @@
       <c r="F11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="270"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="272"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
       <c r="K11" s="1"/>
       <c r="L11" s="117" t="s">
         <v>49</v>
@@ -6753,10 +6828,10 @@
       <c r="F12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="270"/>
-      <c r="H12" s="271"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="272"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6784,10 +6859,10 @@
       <c r="F13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="270"/>
-      <c r="H13" s="271"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="272"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="239"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6815,10 +6890,10 @@
       <c r="F14" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="270"/>
-      <c r="H14" s="271"/>
-      <c r="I14" s="271"/>
-      <c r="J14" s="272"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="239"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6841,10 +6916,10 @@
       <c r="F15" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="273"/>
-      <c r="H15" s="274"/>
-      <c r="I15" s="274"/>
-      <c r="J15" s="275"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="242"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6867,12 +6942,12 @@
       <c r="F16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="228" t="s">
+      <c r="G16" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="230"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="215"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6895,12 +6970,12 @@
       <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="246" t="s">
+      <c r="G17" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="248"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="245"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6923,12 +6998,12 @@
       <c r="F18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="213" t="s">
+      <c r="G18" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="248"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="120" t="s">
@@ -6962,12 +7037,12 @@
       <c r="F19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="216" t="s">
+      <c r="G19" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="218"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="251"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="99" t="s">
@@ -7003,12 +7078,12 @@
       <c r="F20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="237" t="s">
+      <c r="G20" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="239"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="254"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="133" t="s">
@@ -7044,12 +7119,12 @@
       <c r="F21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="237" t="s">
+      <c r="G21" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="238"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="239"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="254"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="152" t="s">
@@ -7085,12 +7160,12 @@
       <c r="F22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="237" t="s">
+      <c r="G22" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="238"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="155" t="s">
@@ -7120,12 +7195,12 @@
       <c r="F23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="237" t="s">
+      <c r="G23" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="238"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="254"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -7148,12 +7223,12 @@
       <c r="F24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="237" t="s">
+      <c r="G24" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="238"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="239"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="254"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7176,12 +7251,12 @@
       <c r="F25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="237" t="s">
+      <c r="G25" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="239"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="254"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7204,12 +7279,12 @@
       <c r="F26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="237" t="s">
+      <c r="G26" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="239"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="254"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7232,12 +7307,12 @@
       <c r="F27" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="228" t="s">
+      <c r="G27" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="230"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="215"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7260,12 +7335,12 @@
       <c r="F28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="228" t="s">
+      <c r="G28" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="230"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="215"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7288,12 +7363,12 @@
       <c r="F29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="219" t="s">
+      <c r="G29" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="221"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="259"/>
+      <c r="J29" s="260"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7315,12 +7390,12 @@
       <c r="F30" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="228" t="s">
+      <c r="G30" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="229"/>
-      <c r="I30" s="229"/>
-      <c r="J30" s="230"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7342,12 +7417,12 @@
       <c r="F31" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="228" t="s">
+      <c r="G31" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="229"/>
-      <c r="I31" s="229"/>
-      <c r="J31" s="230"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="215"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7369,12 +7444,12 @@
       <c r="F32" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="231" t="s">
+      <c r="G32" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="232"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="233"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="263"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7396,12 +7471,12 @@
       <c r="F33" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="234" t="s">
+      <c r="G33" s="264" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="235"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="236"/>
+      <c r="H33" s="265"/>
+      <c r="I33" s="265"/>
+      <c r="J33" s="266"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7423,12 +7498,12 @@
       <c r="F34" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="237" t="s">
+      <c r="G34" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="238"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="239"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="254"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7450,12 +7525,12 @@
       <c r="F35" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="237" t="s">
+      <c r="G35" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="239"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="254"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7477,12 +7552,12 @@
       <c r="F36" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="228" t="s">
+      <c r="G36" s="213" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="229"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="230"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="215"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7504,12 +7579,12 @@
       <c r="F37" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="237" t="s">
+      <c r="G37" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="238"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="239"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="253"/>
+      <c r="J37" s="254"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7531,12 +7606,12 @@
       <c r="F38" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="240" t="s">
+      <c r="G38" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="241"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="242"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="268"/>
+      <c r="J38" s="269"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7558,12 +7633,12 @@
       <c r="F39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="243" t="s">
+      <c r="G39" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="245"/>
+      <c r="H39" s="271"/>
+      <c r="I39" s="271"/>
+      <c r="J39" s="272"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7585,12 +7660,12 @@
       <c r="F40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="225" t="s">
+      <c r="G40" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="226"/>
-      <c r="I40" s="226"/>
-      <c r="J40" s="227"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="257"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7612,12 +7687,12 @@
       <c r="F41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="222" t="s">
+      <c r="G41" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="224"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="275"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7639,12 +7714,12 @@
       <c r="F42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="222" t="s">
+      <c r="G42" s="273" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="224"/>
+      <c r="H42" s="274"/>
+      <c r="I42" s="274"/>
+      <c r="J42" s="275"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7666,12 +7741,12 @@
       <c r="F43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="222" t="s">
+      <c r="G43" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="224"/>
+      <c r="H43" s="274"/>
+      <c r="I43" s="274"/>
+      <c r="J43" s="275"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7693,12 +7768,12 @@
       <c r="F44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="222" t="s">
+      <c r="G44" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="223"/>
-      <c r="I44" s="223"/>
-      <c r="J44" s="224"/>
+      <c r="H44" s="274"/>
+      <c r="I44" s="274"/>
+      <c r="J44" s="275"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7720,12 +7795,12 @@
       <c r="F45" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="222" t="s">
+      <c r="G45" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="224"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="274"/>
+      <c r="J45" s="275"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7747,12 +7822,12 @@
       <c r="F46" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="222" t="s">
+      <c r="G46" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="223"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="224"/>
+      <c r="H46" s="274"/>
+      <c r="I46" s="274"/>
+      <c r="J46" s="275"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7774,12 +7849,12 @@
       <c r="F47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="213" t="s">
+      <c r="G47" s="246" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="214"/>
-      <c r="I47" s="214"/>
-      <c r="J47" s="215"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="247"/>
+      <c r="J47" s="248"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7801,12 +7876,12 @@
       <c r="F48" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="216" t="s">
+      <c r="G48" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="217"/>
-      <c r="I48" s="217"/>
-      <c r="J48" s="218"/>
+      <c r="H48" s="250"/>
+      <c r="I48" s="250"/>
+      <c r="J48" s="251"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7828,12 +7903,12 @@
       <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="219" t="s">
+      <c r="G49" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="220"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="221"/>
+      <c r="H49" s="259"/>
+      <c r="I49" s="259"/>
+      <c r="J49" s="260"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7877,11 +7952,27 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="G8:J15"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -7894,27 +7985,11 @@
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="G8:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -7926,7 +8001,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8301,9 +8376,15 @@
       </c>
       <c r="H12" s="123"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="278" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="276" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="277" t="s">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -8317,6 +8398,15 @@
       <c r="H13" s="120" t="s">
         <v>92</v>
       </c>
+      <c r="K13" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="148" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -8327,6 +8417,15 @@
       </c>
       <c r="H14" s="120" t="s">
         <v>106</v>
+      </c>
+      <c r="K14" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="134" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="137">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -439,18 +439,6 @@
   </si>
   <si>
     <t>OE</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -503,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1455,9 +1449,6 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1462,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,6 +1534,87 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1489,78 +1624,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,67 +1642,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,6 +1696,60 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,112 +1831,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,16 +2256,16 @@
       <c r="M2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="182" t="s">
+      <c r="N2" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1"/>
@@ -2323,10 +2320,10 @@
       <c r="M3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="164"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
       <c r="R3" s="1"/>
       <c r="S3" s="23" t="s">
         <v>79</v>
@@ -2379,12 +2376,12 @@
       <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="207" t="s">
+      <c r="N4" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="209"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="172"/>
       <c r="R4" s="1"/>
       <c r="S4" s="13"/>
       <c r="T4" s="9" t="s">
@@ -2427,12 +2424,12 @@
       <c r="M5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="171" t="s">
+      <c r="N5" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="166"/>
       <c r="R5" s="1"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
@@ -2467,16 +2464,16 @@
       <c r="M6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="182" t="s">
+      <c r="N6" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1"/>
@@ -2510,12 +2507,12 @@
       <c r="M7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="171" t="s">
+      <c r="N7" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="173"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="166"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2547,12 +2544,12 @@
       <c r="M8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="183" t="s">
+      <c r="N8" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="169"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2584,16 +2581,16 @@
       <c r="M9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="182" t="s">
+      <c r="N9" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="1"/>
@@ -2629,10 +2626,10 @@
       <c r="M10" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="162"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="164"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="163"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2664,12 +2661,12 @@
       <c r="M11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="210" t="s">
+      <c r="N11" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="212"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="175"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2701,12 +2698,12 @@
       <c r="M12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="156" t="s">
+      <c r="N12" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="158"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="178"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2738,16 +2735,16 @@
       <c r="M13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="182" t="s">
+      <c r="N13" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="1"/>
@@ -2781,10 +2778,10 @@
       <c r="M14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="162"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="164"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2816,12 +2813,12 @@
       <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="159" t="s">
+      <c r="N15" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="208"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2853,12 +2850,12 @@
       <c r="M16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="165" t="s">
+      <c r="N16" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="167"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="196"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2890,12 +2887,12 @@
       <c r="M17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="156" t="s">
+      <c r="N17" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="158"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="178"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2927,16 +2924,16 @@
       <c r="M18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="192" t="s">
+      <c r="N18" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="193" t="s">
+      <c r="O18" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="193" t="s">
+      <c r="P18" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="194" t="s">
+      <c r="Q18" s="181" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="1"/>
@@ -2970,12 +2967,12 @@
       <c r="M19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="171" t="s">
+      <c r="N19" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="173"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="166"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -3007,12 +3004,12 @@
       <c r="M20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="171" t="s">
+      <c r="N20" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="173"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="166"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -3044,16 +3041,16 @@
       <c r="M21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="195" t="s">
+      <c r="N21" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="196" t="s">
+      <c r="O21" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="196" t="s">
+      <c r="P21" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="197" t="s">
+      <c r="Q21" s="184" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="1"/>
@@ -3087,10 +3084,10 @@
       <c r="M22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="162"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="164"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="163"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3122,12 +3119,12 @@
       <c r="M23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="204" t="s">
+      <c r="N23" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="205"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="206"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="193"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3159,12 +3156,12 @@
       <c r="M24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="156" t="s">
+      <c r="N24" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="158"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="178"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3196,16 +3193,16 @@
       <c r="M25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="192" t="s">
+      <c r="N25" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="193" t="s">
+      <c r="O25" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="193" t="s">
+      <c r="P25" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="194" t="s">
+      <c r="Q25" s="181" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1"/>
@@ -3239,16 +3236,16 @@
       <c r="M26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="198" t="s">
+      <c r="N26" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="199" t="s">
+      <c r="O26" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="199" t="s">
+      <c r="P26" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="200" t="s">
+      <c r="Q26" s="187" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1"/>
@@ -3282,10 +3279,10 @@
       <c r="M27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="162"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="164"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="163"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3317,10 +3314,10 @@
       <c r="M28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="162"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="164"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="163"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3352,12 +3349,12 @@
       <c r="M29" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="156" t="s">
+      <c r="N29" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="178"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3389,16 +3386,16 @@
       <c r="M30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="195" t="s">
+      <c r="N30" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="196" t="s">
+      <c r="O30" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="196" t="s">
+      <c r="P30" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="197" t="s">
+      <c r="Q30" s="184" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3432,12 +3429,12 @@
       <c r="M31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="156" t="s">
+      <c r="N31" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="158"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3469,12 +3466,12 @@
       <c r="M32" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="201" t="s">
+      <c r="N32" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="202"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="203"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="190"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3506,16 +3503,16 @@
       <c r="M33" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="195" t="s">
+      <c r="N33" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="196" t="s">
+      <c r="O33" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="196" t="s">
+      <c r="P33" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="197" t="s">
+      <c r="Q33" s="184" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -3549,12 +3546,12 @@
       <c r="M34" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="177" t="s">
+      <c r="N34" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="179"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="205"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3586,12 +3583,12 @@
       <c r="M35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="159" t="s">
+      <c r="N35" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="160"/>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="161"/>
+      <c r="O35" s="207"/>
+      <c r="P35" s="207"/>
+      <c r="Q35" s="208"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3623,10 +3620,10 @@
       <c r="M36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="162"/>
-      <c r="O36" s="163"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="164"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="163"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3658,10 +3655,10 @@
       <c r="M37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="162"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="164"/>
+      <c r="N37" s="161"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="163"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3693,16 +3690,16 @@
       <c r="M38" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="182" t="s">
+      <c r="N38" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R38" s="1"/>
@@ -3736,10 +3733,10 @@
       <c r="M39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="168"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
-      <c r="Q39" s="170"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="199"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3771,12 +3768,12 @@
       <c r="M40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="171" t="s">
+      <c r="N40" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="173"/>
+      <c r="O40" s="165"/>
+      <c r="P40" s="165"/>
+      <c r="Q40" s="166"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3808,12 +3805,12 @@
       <c r="M41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="174" t="s">
+      <c r="N41" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="176"/>
+      <c r="O41" s="201"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="202"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3845,16 +3842,16 @@
       <c r="M42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="182" t="s">
+      <c r="N42" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="1"/>
@@ -3888,12 +3885,12 @@
       <c r="M43" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="183" t="s">
+      <c r="N43" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="184"/>
-      <c r="P43" s="184"/>
-      <c r="Q43" s="185"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+      <c r="Q43" s="169"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3925,10 +3922,10 @@
       <c r="M44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="186"/>
-      <c r="O44" s="187"/>
-      <c r="P44" s="187"/>
-      <c r="Q44" s="188"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="210"/>
+      <c r="P44" s="210"/>
+      <c r="Q44" s="211"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3960,16 +3957,16 @@
       <c r="M45" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="182" t="s">
+      <c r="N45" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -4003,12 +4000,12 @@
       <c r="M46" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="189" t="s">
+      <c r="N46" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="191"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="213"/>
+      <c r="Q46" s="214"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4040,12 +4037,12 @@
       <c r="M47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="165" t="s">
+      <c r="N47" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="167"/>
+      <c r="O47" s="195"/>
+      <c r="P47" s="195"/>
+      <c r="Q47" s="196"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4077,10 +4074,10 @@
       <c r="M48" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="162"/>
-      <c r="O48" s="163"/>
-      <c r="P48" s="163"/>
-      <c r="Q48" s="164"/>
+      <c r="N48" s="161"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="163"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4112,16 +4109,16 @@
       <c r="M49" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="180" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="181" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="182" t="s">
+      <c r="N49" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="160" t="s">
         <v>4</v>
       </c>
       <c r="R49" s="1"/>
@@ -6262,18 +6259,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N18:Q18"/>
@@ -6290,25 +6294,18 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6400,12 +6397,12 @@
       <c r="F2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="216" t="s">
+      <c r="G2" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="218"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="253"/>
       <c r="K2" s="1"/>
       <c r="L2" s="117" t="s">
         <v>80</v>
@@ -6447,10 +6444,10 @@
       <c r="F3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="219"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="221"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="256"/>
       <c r="K3" s="1"/>
       <c r="L3" s="117" t="s">
         <v>28</v>
@@ -6492,12 +6489,12 @@
       <c r="F4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="224"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="259"/>
       <c r="K4" s="1"/>
       <c r="L4" s="117" t="s">
         <v>45</v>
@@ -6539,10 +6536,10 @@
       <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="225"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="227"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
       <c r="K5" s="1"/>
       <c r="L5" s="117" t="s">
         <v>36</v>
@@ -6584,12 +6581,12 @@
       <c r="F6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="228" t="s">
+      <c r="G6" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="230"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="265"/>
       <c r="K6" s="1"/>
       <c r="L6" s="117" t="s">
         <v>52</v>
@@ -6631,10 +6628,10 @@
       <c r="F7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="231"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="268"/>
       <c r="K7" s="1"/>
       <c r="L7" s="117" t="s">
         <v>43</v>
@@ -6670,12 +6667,12 @@
       <c r="F8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="234" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
+      <c r="G8" s="269" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="270"/>
+      <c r="I8" s="270"/>
+      <c r="J8" s="271"/>
       <c r="K8" s="1"/>
       <c r="L8" s="117" t="s">
         <v>44</v>
@@ -6711,10 +6708,10 @@
       <c r="F9" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="237"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="274"/>
       <c r="K9" s="1"/>
       <c r="L9" s="117" t="s">
         <v>25</v>
@@ -6750,10 +6747,10 @@
       <c r="F10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="237"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
       <c r="K10" s="1"/>
       <c r="L10" s="117" t="s">
         <v>89</v>
@@ -6789,10 +6786,10 @@
       <c r="F11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="237"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="273"/>
+      <c r="J11" s="274"/>
       <c r="K11" s="1"/>
       <c r="L11" s="117" t="s">
         <v>49</v>
@@ -6828,10 +6825,10 @@
       <c r="F12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="237"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="274"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6859,10 +6856,10 @@
       <c r="F13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="237"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="239"/>
+      <c r="G13" s="272"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="273"/>
+      <c r="J13" s="274"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6890,10 +6887,10 @@
       <c r="F14" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="237"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="239"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="273"/>
+      <c r="J14" s="274"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6916,10 +6913,10 @@
       <c r="F15" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="240"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="242"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="277"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6942,12 +6939,12 @@
       <c r="F16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="213" t="s">
+      <c r="G16" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6970,12 +6967,12 @@
       <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="243" t="s">
+      <c r="G17" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="244"/>
-      <c r="I17" s="244"/>
-      <c r="J17" s="245"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6998,12 +6995,12 @@
       <c r="F18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="246" t="s">
+      <c r="G18" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="120" t="s">
@@ -7018,7 +7015,7 @@
       <c r="P18" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="154"/>
+      <c r="Q18" s="153"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
@@ -7037,12 +7034,12 @@
       <c r="F19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="249" t="s">
+      <c r="G19" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="251"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="99" t="s">
@@ -7078,12 +7075,12 @@
       <c r="F20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="252" t="s">
+      <c r="G20" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="253"/>
-      <c r="I20" s="253"/>
-      <c r="J20" s="254"/>
+      <c r="H20" s="240"/>
+      <c r="I20" s="240"/>
+      <c r="J20" s="241"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="133" t="s">
@@ -7119,21 +7116,21 @@
       <c r="F21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="252" t="s">
+      <c r="G21" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="253"/>
-      <c r="I21" s="253"/>
-      <c r="J21" s="254"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="241"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="152" t="s">
+      <c r="M21" s="151" t="s">
         <v>62</v>
       </c>
       <c r="N21" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="153" t="s">
+      <c r="O21" s="152" t="s">
         <v>66</v>
       </c>
       <c r="P21" s="115" t="s">
@@ -7160,15 +7157,15 @@
       <c r="F22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="252" t="s">
+      <c r="G22" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="254"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="240"/>
+      <c r="J22" s="241"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="155" t="s">
+      <c r="M22" s="154" t="s">
         <v>63</v>
       </c>
       <c r="N22" s="138" t="s">
@@ -7195,12 +7192,12 @@
       <c r="F23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="252" t="s">
+      <c r="G23" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="254"/>
+      <c r="H23" s="240"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="241"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -7223,12 +7220,12 @@
       <c r="F24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="252" t="s">
+      <c r="G24" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="254"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="241"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7251,12 +7248,12 @@
       <c r="F25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="252" t="s">
+      <c r="G25" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="254"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="241"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7279,12 +7276,12 @@
       <c r="F26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="252" t="s">
+      <c r="G26" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="254"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="241"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7307,12 +7304,12 @@
       <c r="F27" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="213" t="s">
+      <c r="G27" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="215"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7335,12 +7332,12 @@
       <c r="F28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="213" t="s">
+      <c r="G28" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="215"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7363,12 +7360,12 @@
       <c r="F29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="258" t="s">
+      <c r="G29" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="259"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="260"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="223"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7390,12 +7387,12 @@
       <c r="F30" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="213" t="s">
+      <c r="G30" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="215"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7417,12 +7414,12 @@
       <c r="F31" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="213" t="s">
+      <c r="G31" s="230" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="215"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7444,12 +7441,12 @@
       <c r="F32" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="261" t="s">
+      <c r="G32" s="233" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="262"/>
-      <c r="I32" s="262"/>
-      <c r="J32" s="263"/>
+      <c r="H32" s="234"/>
+      <c r="I32" s="234"/>
+      <c r="J32" s="235"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7471,12 +7468,12 @@
       <c r="F33" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="264" t="s">
+      <c r="G33" s="236" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="265"/>
-      <c r="I33" s="265"/>
-      <c r="J33" s="266"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="238"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7498,12 +7495,12 @@
       <c r="F34" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="252" t="s">
+      <c r="G34" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="254"/>
+      <c r="H34" s="240"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="241"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7525,12 +7522,12 @@
       <c r="F35" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="252" t="s">
+      <c r="G35" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="253"/>
-      <c r="I35" s="253"/>
-      <c r="J35" s="254"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="241"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7552,12 +7549,12 @@
       <c r="F36" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="213" t="s">
+      <c r="G36" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="215"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7579,12 +7576,12 @@
       <c r="F37" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="252" t="s">
+      <c r="G37" s="239" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="253"/>
-      <c r="I37" s="253"/>
-      <c r="J37" s="254"/>
+      <c r="H37" s="240"/>
+      <c r="I37" s="240"/>
+      <c r="J37" s="241"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7606,12 +7603,12 @@
       <c r="F38" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="267" t="s">
+      <c r="G38" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="268"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="269"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="244"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7633,12 +7630,12 @@
       <c r="F39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="270" t="s">
+      <c r="G39" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="271"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="272"/>
+      <c r="H39" s="246"/>
+      <c r="I39" s="246"/>
+      <c r="J39" s="247"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7660,12 +7657,12 @@
       <c r="F40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="255" t="s">
+      <c r="G40" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="256"/>
-      <c r="I40" s="256"/>
-      <c r="J40" s="257"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="229"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7687,12 +7684,12 @@
       <c r="F41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="273" t="s">
+      <c r="G41" s="224" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="274"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="275"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="226"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7714,12 +7711,12 @@
       <c r="F42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="273" t="s">
+      <c r="G42" s="224" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="274"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="275"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="226"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7741,12 +7738,12 @@
       <c r="F43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="273" t="s">
+      <c r="G43" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="274"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="275"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="226"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7768,12 +7765,12 @@
       <c r="F44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="273" t="s">
+      <c r="G44" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="274"/>
-      <c r="I44" s="274"/>
-      <c r="J44" s="275"/>
+      <c r="H44" s="225"/>
+      <c r="I44" s="225"/>
+      <c r="J44" s="226"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7795,12 +7792,12 @@
       <c r="F45" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="273" t="s">
+      <c r="G45" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="274"/>
-      <c r="I45" s="274"/>
-      <c r="J45" s="275"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="225"/>
+      <c r="J45" s="226"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7822,12 +7819,12 @@
       <c r="F46" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="273" t="s">
+      <c r="G46" s="224" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="274"/>
-      <c r="I46" s="274"/>
-      <c r="J46" s="275"/>
+      <c r="H46" s="225"/>
+      <c r="I46" s="225"/>
+      <c r="J46" s="226"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7849,12 +7846,12 @@
       <c r="F47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="246" t="s">
+      <c r="G47" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="247"/>
-      <c r="I47" s="247"/>
-      <c r="J47" s="248"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="217"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7876,12 +7873,12 @@
       <c r="F48" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="249" t="s">
+      <c r="G48" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="250"/>
-      <c r="I48" s="250"/>
-      <c r="J48" s="251"/>
+      <c r="H48" s="219"/>
+      <c r="I48" s="219"/>
+      <c r="J48" s="220"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7903,12 +7900,12 @@
       <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="258" t="s">
+      <c r="G49" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="259"/>
-      <c r="I49" s="259"/>
-      <c r="J49" s="260"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7952,15 +7949,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="G8:J15"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G30:J30"/>
@@ -7973,23 +7978,15 @@
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="G8:J15"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -8001,7 +7998,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8075,10 +8072,10 @@
       <c r="T2" s="141"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="278" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="278" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="127" t="s">
@@ -8123,10 +8120,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="121" t="s">
@@ -8170,10 +8167,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="279" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="121" t="s">
@@ -8211,10 +8208,10 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="279" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="121" t="s">
@@ -8249,7 +8246,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="121" t="s">
@@ -8284,7 +8281,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="150" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1"/>
@@ -8376,13 +8373,13 @@
       </c>
       <c r="H12" s="123"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="278" t="s">
+      <c r="K12" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="276" t="s">
+      <c r="L12" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="277" t="s">
+      <c r="M12" s="156" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="1"/>
@@ -8402,10 +8399,10 @@
         <v>135</v>
       </c>
       <c r="L13" s="148" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="M13" s="148" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -8422,10 +8419,10 @@
         <v>136</v>
       </c>
       <c r="L14" s="134" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="M14" s="134" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="139">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>OE</t>
+  </si>
+  <si>
+    <t>2000, 300</t>
+  </si>
+  <si>
+    <t>2000, 500</t>
   </si>
 </sst>
 </file>
@@ -1471,6 +1477,84 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,24 +1564,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,6 +1573,69 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,121 +1654,103 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,6 +1771,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,6 +1798,42 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,165 +1841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,16 +2262,16 @@
       <c r="M2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="160" t="s">
+      <c r="N2" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="1"/>
@@ -2320,10 +2326,10 @@
       <c r="M3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="168"/>
       <c r="R3" s="1"/>
       <c r="S3" s="23" t="s">
         <v>79</v>
@@ -2376,12 +2382,12 @@
       <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="170" t="s">
+      <c r="N4" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="172"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="213"/>
       <c r="R4" s="1"/>
       <c r="S4" s="13"/>
       <c r="T4" s="9" t="s">
@@ -2424,12 +2430,12 @@
       <c r="M5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="164" t="s">
+      <c r="N5" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="166"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="177"/>
       <c r="R5" s="1"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
@@ -2464,16 +2470,16 @@
       <c r="M6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="160" t="s">
+      <c r="N6" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1"/>
@@ -2507,12 +2513,12 @@
       <c r="M7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="164" t="s">
+      <c r="N7" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="177"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2544,12 +2550,12 @@
       <c r="M8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="167" t="s">
+      <c r="N8" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="169"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="189"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2581,16 +2587,16 @@
       <c r="M9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="160" t="s">
+      <c r="N9" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="1"/>
@@ -2626,10 +2632,10 @@
       <c r="M10" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="161"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="163"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="168"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2661,12 +2667,12 @@
       <c r="M11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="173" t="s">
+      <c r="N11" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="175"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="216"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2698,12 +2704,12 @@
       <c r="M12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="176" t="s">
+      <c r="N12" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="178"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="162"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2735,16 +2741,16 @@
       <c r="M13" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="160" t="s">
+      <c r="N13" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="1"/>
@@ -2778,10 +2784,10 @@
       <c r="M14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="168"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2813,12 +2819,12 @@
       <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="206" t="s">
+      <c r="N15" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="208"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="165"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2850,12 +2856,12 @@
       <c r="M16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="194" t="s">
+      <c r="N16" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="195"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="196"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="171"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2887,12 +2893,12 @@
       <c r="M17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="176" t="s">
+      <c r="N17" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="178"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="162"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2924,16 +2930,16 @@
       <c r="M18" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="179" t="s">
+      <c r="N18" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="180" t="s">
+      <c r="O18" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="180" t="s">
+      <c r="P18" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="181" t="s">
+      <c r="Q18" s="198" t="s">
         <v>10</v>
       </c>
       <c r="R18" s="1"/>
@@ -2967,12 +2973,12 @@
       <c r="M19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="164" t="s">
+      <c r="N19" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="166"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="177"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -3004,12 +3010,12 @@
       <c r="M20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="164" t="s">
+      <c r="N20" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="166"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="177"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -3041,16 +3047,16 @@
       <c r="M21" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="182" t="s">
+      <c r="N21" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="183" t="s">
+      <c r="O21" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="183" t="s">
+      <c r="P21" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="184" t="s">
+      <c r="Q21" s="201" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="1"/>
@@ -3084,10 +3090,10 @@
       <c r="M22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="163"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="168"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3119,12 +3125,12 @@
       <c r="M23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="191" t="s">
+      <c r="N23" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="192"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="193"/>
+      <c r="O23" s="209"/>
+      <c r="P23" s="209"/>
+      <c r="Q23" s="210"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3156,12 +3162,12 @@
       <c r="M24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="176" t="s">
+      <c r="N24" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="177"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="178"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="162"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3193,16 +3199,16 @@
       <c r="M25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="179" t="s">
+      <c r="N25" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="180" t="s">
+      <c r="O25" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="180" t="s">
+      <c r="P25" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="181" t="s">
+      <c r="Q25" s="198" t="s">
         <v>12</v>
       </c>
       <c r="R25" s="1"/>
@@ -3236,16 +3242,16 @@
       <c r="M26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="185" t="s">
+      <c r="N26" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="186" t="s">
+      <c r="O26" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="186" t="s">
+      <c r="P26" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="187" t="s">
+      <c r="Q26" s="204" t="s">
         <v>12</v>
       </c>
       <c r="R26" s="1"/>
@@ -3279,10 +3285,10 @@
       <c r="M27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="161"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="163"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="168"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3314,10 +3320,10 @@
       <c r="M28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="161"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="163"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="168"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -3349,12 +3355,12 @@
       <c r="M29" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="176" t="s">
+      <c r="N29" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="178"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="162"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -3386,16 +3392,16 @@
       <c r="M30" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="182" t="s">
+      <c r="N30" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="183" t="s">
+      <c r="O30" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="183" t="s">
+      <c r="P30" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="184" t="s">
+      <c r="Q30" s="201" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="1"/>
@@ -3429,12 +3435,12 @@
       <c r="M31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="N31" s="176" t="s">
+      <c r="N31" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="178"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="162"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -3466,12 +3472,12 @@
       <c r="M32" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="188" t="s">
+      <c r="N32" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="189"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="190"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
+      <c r="Q32" s="207"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3503,16 +3509,16 @@
       <c r="M33" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="182" t="s">
+      <c r="N33" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="183" t="s">
+      <c r="O33" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="183" t="s">
+      <c r="P33" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="184" t="s">
+      <c r="Q33" s="201" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="1"/>
@@ -3546,12 +3552,12 @@
       <c r="M34" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="203" t="s">
+      <c r="N34" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="204"/>
-      <c r="P34" s="204"/>
-      <c r="Q34" s="205"/>
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="183"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -3583,12 +3589,12 @@
       <c r="M35" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="206" t="s">
+      <c r="N35" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="207"/>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="208"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="165"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -3620,10 +3626,10 @@
       <c r="M36" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="161"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="163"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="168"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -3655,10 +3661,10 @@
       <c r="M37" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="161"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="163"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="168"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3690,16 +3696,16 @@
       <c r="M38" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="160" t="s">
+      <c r="N38" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R38" s="1"/>
@@ -3733,10 +3739,10 @@
       <c r="M39" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="197"/>
-      <c r="O39" s="198"/>
-      <c r="P39" s="198"/>
-      <c r="Q39" s="199"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="174"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -3768,12 +3774,12 @@
       <c r="M40" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="164" t="s">
+      <c r="N40" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="165"/>
-      <c r="P40" s="165"/>
-      <c r="Q40" s="166"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="177"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -3805,12 +3811,12 @@
       <c r="M41" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="200" t="s">
+      <c r="N41" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="201"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="202"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="180"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -3842,16 +3848,16 @@
       <c r="M42" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="160" t="s">
+      <c r="N42" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="1"/>
@@ -3885,12 +3891,12 @@
       <c r="M43" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="167" t="s">
+      <c r="N43" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="O43" s="168"/>
-      <c r="P43" s="168"/>
-      <c r="Q43" s="169"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="189"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -3922,10 +3928,10 @@
       <c r="M44" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="209"/>
-      <c r="O44" s="210"/>
-      <c r="P44" s="210"/>
-      <c r="Q44" s="211"/>
+      <c r="N44" s="190"/>
+      <c r="O44" s="191"/>
+      <c r="P44" s="191"/>
+      <c r="Q44" s="192"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -3957,16 +3963,16 @@
       <c r="M45" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="160" t="s">
+      <c r="N45" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -4000,12 +4006,12 @@
       <c r="M46" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="212" t="s">
+      <c r="N46" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
-      <c r="Q46" s="214"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="194"/>
+      <c r="Q46" s="195"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -4037,12 +4043,12 @@
       <c r="M47" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="194" t="s">
+      <c r="N47" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="O47" s="195"/>
-      <c r="P47" s="195"/>
-      <c r="Q47" s="196"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="171"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -4074,10 +4080,10 @@
       <c r="M48" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="161"/>
-      <c r="O48" s="162"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="163"/>
+      <c r="N48" s="166"/>
+      <c r="O48" s="167"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="168"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4109,16 +4115,16 @@
       <c r="M49" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="160" t="s">
+      <c r="N49" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="186" t="s">
         <v>4</v>
       </c>
       <c r="R49" s="1"/>
@@ -6259,25 +6265,18 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N48:Q48"/>
     <mergeCell ref="N18:Q18"/>
@@ -6294,18 +6293,25 @@
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6397,12 +6403,12 @@
       <c r="F2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="251" t="s">
+      <c r="G2" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="253"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="222"/>
       <c r="K2" s="1"/>
       <c r="L2" s="117" t="s">
         <v>80</v>
@@ -6444,10 +6450,10 @@
       <c r="F3" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="256"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="225"/>
       <c r="K3" s="1"/>
       <c r="L3" s="117" t="s">
         <v>28</v>
@@ -6489,12 +6495,12 @@
       <c r="F4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="257" t="s">
+      <c r="G4" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="259"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="228"/>
       <c r="K4" s="1"/>
       <c r="L4" s="117" t="s">
         <v>45</v>
@@ -6536,10 +6542,10 @@
       <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="261"/>
-      <c r="I5" s="261"/>
-      <c r="J5" s="262"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="231"/>
       <c r="K5" s="1"/>
       <c r="L5" s="117" t="s">
         <v>36</v>
@@ -6581,12 +6587,12 @@
       <c r="F6" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="265"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="1"/>
       <c r="L6" s="117" t="s">
         <v>52</v>
@@ -6628,10 +6634,10 @@
       <c r="F7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="266"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="268"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="237"/>
       <c r="K7" s="1"/>
       <c r="L7" s="117" t="s">
         <v>43</v>
@@ -6667,12 +6673,12 @@
       <c r="F8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="269" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="270"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="271"/>
+      <c r="G8" s="238" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="239"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="240"/>
       <c r="K8" s="1"/>
       <c r="L8" s="117" t="s">
         <v>44</v>
@@ -6708,10 +6714,10 @@
       <c r="F9" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="272"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="243"/>
       <c r="K9" s="1"/>
       <c r="L9" s="117" t="s">
         <v>25</v>
@@ -6747,10 +6753,10 @@
       <c r="F10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="272"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="243"/>
       <c r="K10" s="1"/>
       <c r="L10" s="117" t="s">
         <v>89</v>
@@ -6786,10 +6792,10 @@
       <c r="F11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="272"/>
-      <c r="H11" s="273"/>
-      <c r="I11" s="273"/>
-      <c r="J11" s="274"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="243"/>
       <c r="K11" s="1"/>
       <c r="L11" s="117" t="s">
         <v>49</v>
@@ -6825,10 +6831,10 @@
       <c r="F12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="272"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="274"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="243"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6856,10 +6862,10 @@
       <c r="F13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="272"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="274"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="243"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6887,10 +6893,10 @@
       <c r="F14" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="272"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="274"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="243"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6913,10 +6919,10 @@
       <c r="F15" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="277"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="246"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6939,12 +6945,12 @@
       <c r="F16" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="230" t="s">
+      <c r="G16" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="219"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6967,12 +6973,12 @@
       <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="248" t="s">
+      <c r="G17" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="249"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6995,12 +7001,12 @@
       <c r="F18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="215" t="s">
+      <c r="G18" s="250" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="217"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="120" t="s">
@@ -7034,12 +7040,12 @@
       <c r="F19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="218" t="s">
+      <c r="G19" s="253" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="220"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="255"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="99" t="s">
@@ -7075,12 +7081,12 @@
       <c r="F20" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="239" t="s">
+      <c r="G20" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="241"/>
+      <c r="H20" s="257"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="258"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="133" t="s">
@@ -7116,12 +7122,12 @@
       <c r="F21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="239" t="s">
+      <c r="G21" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="241"/>
+      <c r="H21" s="257"/>
+      <c r="I21" s="257"/>
+      <c r="J21" s="258"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="151" t="s">
@@ -7157,12 +7163,12 @@
       <c r="F22" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="239" t="s">
+      <c r="G22" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="258"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="154" t="s">
@@ -7192,12 +7198,12 @@
       <c r="F23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="239" t="s">
+      <c r="G23" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="258"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -7220,12 +7226,12 @@
       <c r="F24" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="239" t="s">
+      <c r="G24" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="241"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="258"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7248,12 +7254,12 @@
       <c r="F25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="239" t="s">
+      <c r="G25" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="240"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="241"/>
+      <c r="H25" s="257"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="258"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7276,12 +7282,12 @@
       <c r="F26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="239" t="s">
+      <c r="G26" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="241"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="258"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7304,12 +7310,12 @@
       <c r="F27" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="230" t="s">
+      <c r="G27" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="219"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7332,12 +7338,12 @@
       <c r="F28" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="230" t="s">
+      <c r="G28" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="219"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7360,12 +7366,12 @@
       <c r="F29" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="221" t="s">
+      <c r="G29" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="223"/>
+      <c r="H29" s="263"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="264"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7387,12 +7393,12 @@
       <c r="F30" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="230" t="s">
+      <c r="G30" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="219"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7414,12 +7420,12 @@
       <c r="F31" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="230" t="s">
+      <c r="G31" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="231"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="219"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7441,12 +7447,12 @@
       <c r="F32" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="233" t="s">
+      <c r="G32" s="265" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="234"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="235"/>
+      <c r="H32" s="266"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="267"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7468,12 +7474,12 @@
       <c r="F33" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="236" t="s">
+      <c r="G33" s="268" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="238"/>
+      <c r="H33" s="269"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="270"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7495,12 +7501,12 @@
       <c r="F34" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="239" t="s">
+      <c r="G34" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="240"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="241"/>
+      <c r="H34" s="257"/>
+      <c r="I34" s="257"/>
+      <c r="J34" s="258"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7522,12 +7528,12 @@
       <c r="F35" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="239" t="s">
+      <c r="G35" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="241"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="257"/>
+      <c r="J35" s="258"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7549,12 +7555,12 @@
       <c r="F36" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="230" t="s">
+      <c r="G36" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="231"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -7576,12 +7582,12 @@
       <c r="F37" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="239" t="s">
+      <c r="G37" s="256" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="241"/>
+      <c r="H37" s="257"/>
+      <c r="I37" s="257"/>
+      <c r="J37" s="258"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -7603,12 +7609,12 @@
       <c r="F38" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="242" t="s">
+      <c r="G38" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="243"/>
-      <c r="I38" s="243"/>
-      <c r="J38" s="244"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="272"/>
+      <c r="J38" s="273"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -7630,12 +7636,12 @@
       <c r="F39" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="245" t="s">
+      <c r="G39" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="246"/>
-      <c r="I39" s="246"/>
-      <c r="J39" s="247"/>
+      <c r="H39" s="275"/>
+      <c r="I39" s="275"/>
+      <c r="J39" s="276"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -7657,12 +7663,12 @@
       <c r="F40" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="227" t="s">
+      <c r="G40" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="228"/>
-      <c r="I40" s="228"/>
-      <c r="J40" s="229"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="260"/>
+      <c r="J40" s="261"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -7684,12 +7690,12 @@
       <c r="F41" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="224" t="s">
+      <c r="G41" s="277" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="226"/>
+      <c r="H41" s="278"/>
+      <c r="I41" s="278"/>
+      <c r="J41" s="279"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7711,12 +7717,12 @@
       <c r="F42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="224" t="s">
+      <c r="G42" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="225"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="226"/>
+      <c r="H42" s="278"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="279"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7738,12 +7744,12 @@
       <c r="F43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="224" t="s">
+      <c r="G43" s="277" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="225"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="226"/>
+      <c r="H43" s="278"/>
+      <c r="I43" s="278"/>
+      <c r="J43" s="279"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7765,12 +7771,12 @@
       <c r="F44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="224" t="s">
+      <c r="G44" s="277" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="225"/>
-      <c r="I44" s="225"/>
-      <c r="J44" s="226"/>
+      <c r="H44" s="278"/>
+      <c r="I44" s="278"/>
+      <c r="J44" s="279"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -7792,12 +7798,12 @@
       <c r="F45" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="224" t="s">
+      <c r="G45" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="226"/>
+      <c r="H45" s="278"/>
+      <c r="I45" s="278"/>
+      <c r="J45" s="279"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -7819,12 +7825,12 @@
       <c r="F46" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="224" t="s">
+      <c r="G46" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="225"/>
-      <c r="I46" s="225"/>
-      <c r="J46" s="226"/>
+      <c r="H46" s="278"/>
+      <c r="I46" s="278"/>
+      <c r="J46" s="279"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -7846,12 +7852,12 @@
       <c r="F47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="215" t="s">
+      <c r="G47" s="250" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="217"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="251"/>
+      <c r="J47" s="252"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7873,12 +7879,12 @@
       <c r="F48" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="218" t="s">
+      <c r="G48" s="253" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="219"/>
-      <c r="I48" s="219"/>
-      <c r="J48" s="220"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="255"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7900,12 +7906,12 @@
       <c r="F49" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="221" t="s">
+      <c r="G49" s="262" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="222"/>
-      <c r="I49" s="222"/>
-      <c r="J49" s="223"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="264"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7949,11 +7955,27 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="G8:J15"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
@@ -7966,27 +7988,11 @@
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G6:J7"/>
+    <mergeCell ref="G8:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
@@ -7998,7 +8004,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8072,10 +8078,10 @@
       <c r="T2" s="141"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="158" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="127" t="s">
@@ -8120,7 +8126,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="159" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="150" t="s">
@@ -8170,7 +8176,7 @@
       <c r="A5" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="279" t="s">
+      <c r="B5" s="159" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="121" t="s">
@@ -8211,7 +8217,7 @@
       <c r="A6" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="159" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="121" t="s">
@@ -8221,9 +8227,11 @@
         <v>71</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="H6" s="122" t="s">
         <v>108</v>
       </c>
@@ -8256,9 +8264,11 @@
         <v>71</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H7" s="122" t="s">
         <v>109</v>
       </c>

--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -8001,10 +8001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8457,7 +8457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -8468,7 +8468,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -8477,7 +8477,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -8489,101 +8489,98 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/constructor pinout.xlsx
+++ b/Documents/constructor pinout.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="StolenByGogizh" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GENERAL" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SENSORS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="StolenByGogizh" sheetId="1" r:id="rId1"/>
+    <sheet name="GENERAL" sheetId="2" r:id="rId2"/>
+    <sheet name="SENSORS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="140">
   <si>
     <t>RF-GNSS</t>
   </si>
@@ -296,10 +297,10 @@
     <t>Free</t>
   </si>
   <si>
-    <t xml:space="preserve">MCU L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCU R</t>
+    <t>MCU L</t>
+  </si>
+  <si>
+    <t>MCU R</t>
   </si>
   <si>
     <t>User</t>
@@ -359,10 +360,10 @@
     <t>PC10</t>
   </si>
   <si>
-    <t xml:space="preserve">Photoresistor (primary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000, 300</t>
+    <t>Photoresistor (primary)</t>
+  </si>
+  <si>
+    <t>2000, 300</t>
   </si>
   <si>
     <t xml:space="preserve">BMP280 </t>
@@ -374,10 +375,10 @@
     <t>PC11</t>
   </si>
   <si>
-    <t xml:space="preserve">Photoresistor (seed-checker)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000, 500</t>
+    <t>Photoresistor (seed-checker)</t>
+  </si>
+  <si>
+    <t>2000, 500</t>
   </si>
   <si>
     <t xml:space="preserve">DS18B20U </t>
@@ -450,37 +451,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="120"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="120.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="30">
@@ -659,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -983,19 +989,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right/>
@@ -1082,803 +1075,803 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="268">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="18" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="16" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="18" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="18" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="14" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="7" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="18" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="22" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="23" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="3" fillId="24" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="25" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="27" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="25" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="22" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="23" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="24" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="25" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="28" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="27" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="29" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="29" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="24" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="30" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="27" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="23" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="29" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="22" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1889,295 +1882,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -2382,26 +2095,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K40" activeCellId="0" sqref="K40"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="12" max="12" width="9.85546875"/>
-    <col bestFit="1" customWidth="1" min="13" max="14" width="12.42578125"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" width="15.7109375"/>
-    <col bestFit="1" customWidth="1" min="19" max="19" width="12.42578125"/>
-    <col bestFit="1" customWidth="1" min="21" max="21" width="11.42578125"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2175,7 @@
       </c>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" ht="15.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -2494,16 +2209,16 @@
       <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="N2" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="4"/>
@@ -2524,118 +2239,118 @@
       </c>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" ht="15.75">
-      <c r="A3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="150"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" ht="15.75">
-      <c r="A4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="32" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="204"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="30" t="s">
         <v>25</v>
       </c>
       <c r="U4" s="4"/>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="32" t="s">
         <v>27</v>
       </c>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" ht="15.75">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2644,14 +2359,14 @@
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="4"/>
@@ -2659,18 +2374,18 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="171"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="U5" s="4"/>
@@ -2678,7 +2393,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" ht="15.75">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2702,16 +2417,16 @@
       <c r="M6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="17" t="s">
+      <c r="N6" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="4"/>
@@ -2722,8 +2437,8 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" ht="15.75">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -2732,7 +2447,7 @@
       <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4"/>
@@ -2742,15 +2457,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2759,17 +2474,17 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" ht="15.75">
-      <c r="A8" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="4"/>
@@ -2779,15 +2494,15 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -2796,7 +2511,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" ht="15.75">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2819,39 +2534,39 @@
       <c r="M9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="17" t="s">
+      <c r="N9" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="56" t="s">
+      <c r="U9" s="41" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" ht="15.75">
-      <c r="A10" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4"/>
@@ -2861,13 +2576,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="150"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -2876,8 +2591,8 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" ht="15.75">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2886,7 +2601,7 @@
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4"/>
@@ -2896,15 +2611,15 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="201"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2913,17 +2628,17 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" ht="15.75">
-      <c r="A12" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4"/>
@@ -2933,15 +2648,15 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="68"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="186"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -2950,7 +2665,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" ht="15.75">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -2973,16 +2688,16 @@
       <c r="M13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="17" t="s">
+      <c r="N13" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="4"/>
@@ -2993,8 +2708,8 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" ht="15.75">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3003,7 +2718,7 @@
       <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4"/>
@@ -3013,13 +2728,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="150"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -3028,8 +2743,8 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" ht="15.75">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3038,7 +2753,7 @@
       <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="4"/>
@@ -3048,15 +2763,15 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="74" t="s">
+      <c r="N15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="183"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -3065,17 +2780,17 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" ht="15.75">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4"/>
@@ -3085,15 +2800,15 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="80" t="s">
+      <c r="N16" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="82"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -3102,35 +2817,35 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A17" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="M17" s="65" t="s">
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="M17" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="186"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3139,39 +2854,39 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A18" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="M18" s="88" t="s">
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="M18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="89" t="s">
+      <c r="N18" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="90" t="s">
+      <c r="O18" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="90" t="s">
+      <c r="P18" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="91" t="s">
+      <c r="Q18" s="195" t="s">
         <v>50</v>
       </c>
       <c r="R18" s="4"/>
@@ -3182,8 +2897,8 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3192,25 +2907,25 @@
       <c r="C19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="35" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="M19" s="46" t="s">
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="M19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="171"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3219,8 +2934,8 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A20" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3229,25 +2944,25 @@
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="35" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="M20" s="46" t="s">
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="M20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="171"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -3256,39 +2971,39 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A21" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="64" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="M21" s="88" t="s">
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="M21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="95" t="s">
+      <c r="N21" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="96" t="s">
+      <c r="O21" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="P21" s="96" t="s">
+      <c r="P21" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="Q21" s="177" t="s">
         <v>57</v>
       </c>
       <c r="R21" s="4"/>
@@ -3299,33 +3014,33 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A22" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="M22" s="27" t="s">
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="M22" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="150"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -3334,35 +3049,35 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="99" t="s">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A23" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="100" t="s">
+      <c r="C23" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="M23" s="101" t="s">
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="M23" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="192"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -3371,35 +3086,35 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="M24" s="65" t="s">
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="M24" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="66" t="s">
+      <c r="N24" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="186"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3408,39 +3123,39 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="105" t="s">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="2.2000000000000002">
+      <c r="A25" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="71" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="M25" s="88" t="s">
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="89" t="s">
+      <c r="N25" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="90" t="s">
+      <c r="O25" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="90" t="s">
+      <c r="P25" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="91" t="s">
+      <c r="Q25" s="195" t="s">
         <v>62</v>
       </c>
       <c r="R25" s="4"/>
@@ -3451,17 +3166,17 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" ht="15.75">
-      <c r="A26" s="105" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="71" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="4"/>
@@ -3471,19 +3186,19 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="M26" s="88" t="s">
+      <c r="M26" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="108" t="s">
+      <c r="N26" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="109" t="s">
+      <c r="O26" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="109" t="s">
+      <c r="P26" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="110" t="s">
+      <c r="Q26" s="198" t="s">
         <v>62</v>
       </c>
       <c r="R26" s="4"/>
@@ -3494,17 +3209,17 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" ht="15.75">
-      <c r="A27" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="36" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="112" t="s">
+      <c r="C27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="73" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="4"/>
@@ -3514,13 +3229,13 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="150"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3529,8 +3244,8 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" ht="15.75">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3539,7 +3254,7 @@
       <c r="C28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="4"/>
@@ -3549,13 +3264,13 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="150"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3564,17 +3279,17 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" ht="15.75">
-      <c r="A29" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="25" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="4"/>
@@ -3584,15 +3299,15 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="M29" s="65" t="s">
+      <c r="M29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="66" t="s">
+      <c r="N29" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="68"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="186"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3601,17 +3316,17 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" ht="15.75">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="64" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="4"/>
@@ -3621,19 +3336,19 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="M30" s="88" t="s">
+      <c r="M30" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="95" t="s">
+      <c r="N30" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="96" t="s">
+      <c r="O30" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="P30" s="96" t="s">
+      <c r="P30" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="Q30" s="97" t="s">
+      <c r="Q30" s="177" t="s">
         <v>57</v>
       </c>
       <c r="R30" s="4"/>
@@ -3644,17 +3359,17 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" ht="15.75">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="58" t="s">
+      <c r="C31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="4"/>
@@ -3664,15 +3379,15 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="66" t="s">
+      <c r="N31" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="68"/>
+      <c r="O31" s="185"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="186"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3681,8 +3396,8 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" ht="15.75">
-      <c r="A32" s="69" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3691,7 +3406,7 @@
       <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="4"/>
@@ -3701,15 +3416,15 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="M32" s="113" t="s">
+      <c r="M32" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="N32" s="114" t="s">
+      <c r="N32" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="116"/>
+      <c r="O32" s="188"/>
+      <c r="P32" s="188"/>
+      <c r="Q32" s="189"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -3718,17 +3433,17 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" ht="15.75">
-      <c r="A33" s="85" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="4"/>
@@ -3738,19 +3453,19 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="M33" s="88" t="s">
+      <c r="M33" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="95" t="s">
+      <c r="N33" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O33" s="96" t="s">
+      <c r="O33" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="P33" s="96" t="s">
+      <c r="P33" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="Q33" s="97" t="s">
+      <c r="Q33" s="177" t="s">
         <v>50</v>
       </c>
       <c r="R33" s="4"/>
@@ -3761,17 +3476,17 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" ht="15.75">
-      <c r="A34" s="111" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="73" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="4"/>
@@ -3781,15 +3496,15 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="M34" s="117" t="s">
+      <c r="M34" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="118" t="s">
+      <c r="N34" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="120"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="180"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -3798,8 +3513,8 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" ht="15.75">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -3808,7 +3523,7 @@
       <c r="C35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="4"/>
@@ -3818,15 +3533,15 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="M35" s="73" t="s">
+      <c r="M35" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="N35" s="74" t="s">
+      <c r="N35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="76"/>
+      <c r="O35" s="182"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="183"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -3835,17 +3550,17 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" ht="15.75">
-      <c r="A36" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="54" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="4"/>
@@ -3855,13 +3570,13 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="M36" s="27" t="s">
+      <c r="M36" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="150"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -3870,8 +3585,8 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" ht="15.75">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -3880,7 +3595,7 @@
       <c r="C37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="4"/>
@@ -3890,13 +3605,13 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="M37" s="27" t="s">
+      <c r="M37" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="150"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -3905,7 +3620,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" ht="15.75">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
@@ -3928,16 +3643,16 @@
       <c r="M38" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="17" t="s">
+      <c r="N38" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R38" s="4"/>
@@ -3948,17 +3663,17 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" ht="15.75">
-      <c r="A39" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="36" t="s">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="112" t="s">
+      <c r="C39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="73" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="4"/>
@@ -3968,13 +3683,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="M39" s="27" t="s">
+      <c r="M39" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="121"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="123"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="168"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -3983,8 +3698,8 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" ht="15.75">
-      <c r="A40" s="43" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -3993,7 +3708,7 @@
       <c r="C40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="4"/>
@@ -4003,15 +3718,15 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="M40" s="46" t="s">
+      <c r="M40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N40" s="47" t="s">
+      <c r="N40" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="49"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="171"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -4020,17 +3735,17 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" ht="15.75">
-      <c r="A41" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="25" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="4"/>
@@ -4040,15 +3755,15 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="M41" s="65" t="s">
+      <c r="M41" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="N41" s="124" t="s">
+      <c r="N41" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="174"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -4057,7 +3772,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" ht="15.75">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -4080,16 +3795,16 @@
       <c r="M42" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="17" t="s">
+      <c r="N42" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R42" s="4"/>
@@ -4100,17 +3815,17 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" ht="15.75">
-      <c r="A43" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="38" t="s">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="51" t="s">
+      <c r="C43" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>83</v>
       </c>
       <c r="E43" s="4"/>
@@ -4120,15 +3835,15 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="55"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="156"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -4137,17 +3852,17 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" ht="15.75">
-      <c r="A44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="4"/>
@@ -4157,13 +3872,13 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="M44" s="27" t="s">
+      <c r="M44" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="N44" s="127"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="129"/>
+      <c r="N44" s="157"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="158"/>
+      <c r="Q44" s="159"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -4172,7 +3887,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" ht="15.75">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
@@ -4195,16 +3910,16 @@
       <c r="M45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="17" t="s">
+      <c r="N45" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R45" s="4"/>
@@ -4215,17 +3930,17 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" ht="15.75">
-      <c r="A46" s="130" t="s">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="131" t="s">
+      <c r="C46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="4"/>
@@ -4235,15 +3950,15 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="M46" s="132" t="s">
+      <c r="M46" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="N46" s="133" t="s">
+      <c r="N46" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="134"/>
-      <c r="P46" s="134"/>
-      <c r="Q46" s="135"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="162"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -4252,17 +3967,17 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" ht="15.75">
-      <c r="A47" s="77" t="s">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="78" t="s">
+      <c r="C47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="54" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="4"/>
@@ -4272,15 +3987,15 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="M47" s="79" t="s">
+      <c r="M47" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="N47" s="80" t="s">
+      <c r="N47" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="82"/>
+      <c r="O47" s="164"/>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="165"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -4289,17 +4004,17 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" ht="15.75">
-      <c r="A48" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="37" t="s">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="137" t="s">
+      <c r="C48" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="80" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="4"/>
@@ -4309,13 +4024,13 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="M48" s="27" t="s">
+      <c r="M48" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="N48" s="28"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
+      <c r="N48" s="148"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="150"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -4324,17 +4039,17 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" ht="15.75">
-      <c r="A49" s="138" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="140" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="83" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4"/>
@@ -4347,16 +4062,16 @@
       <c r="M49" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="17" t="s">
+      <c r="N49" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="P49" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="153" t="s">
         <v>9</v>
       </c>
       <c r="R49" s="4"/>
@@ -4367,7 +4082,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -4381,7 +4096,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -4395,7 +4110,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4409,7 +4124,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -4423,7 +4138,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -4437,7 +4152,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -4451,7 +4166,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -4465,7 +4180,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -4479,7 +4194,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -4493,7 +4208,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -4507,7 +4222,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -4521,7 +4236,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -4535,7 +4250,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -4549,7 +4264,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -4563,7 +4278,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -4577,7 +4292,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -4591,7 +4306,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4605,7 +4320,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -4619,7 +4334,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -4633,7 +4348,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -4647,7 +4362,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -4661,7 +4376,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -4675,7 +4390,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -4689,7 +4404,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -4703,7 +4418,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -4717,7 +4432,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -4731,7 +4446,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -4745,7 +4460,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -4759,7 +4474,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -4773,7 +4488,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -4787,7 +4502,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -4801,7 +4516,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -4815,7 +4530,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -4829,7 +4544,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -4843,7 +4558,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -4857,7 +4572,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -4871,7 +4586,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -4885,7 +4600,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -4899,7 +4614,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -4913,7 +4628,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4927,7 +4642,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -4941,7 +4656,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -4955,7 +4670,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -4969,7 +4684,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4983,7 +4698,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4997,7 +4712,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -5011,7 +4726,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -5025,7 +4740,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -5039,7 +4754,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -5053,7 +4768,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -5067,7 +4782,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -5081,7 +4796,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -5095,7 +4810,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -5109,7 +4824,7 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -5123,7 +4838,7 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -5137,7 +4852,7 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -5151,7 +4866,7 @@
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -5165,7 +4880,7 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -5179,7 +4894,7 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -5193,7 +4908,7 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -5207,7 +4922,7 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -5221,7 +4936,7 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -5235,7 +4950,7 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -5249,7 +4964,7 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -5263,7 +4978,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -5277,7 +4992,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -5291,7 +5006,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -5305,7 +5020,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -5319,7 +5034,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -5333,7 +5048,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -5347,7 +5062,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -5361,7 +5076,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -5375,7 +5090,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -5389,7 +5104,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -5403,7 +5118,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -5417,7 +5132,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -5431,7 +5146,7 @@
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -5445,7 +5160,7 @@
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -5459,7 +5174,7 @@
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5473,7 +5188,7 @@
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5487,7 +5202,7 @@
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5501,7 +5216,7 @@
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5515,7 +5230,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5529,7 +5244,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5543,7 +5258,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -5557,7 +5272,7 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -5571,7 +5286,7 @@
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -5585,7 +5300,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -5599,7 +5314,7 @@
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -5613,7 +5328,7 @@
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -5627,7 +5342,7 @@
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -5641,7 +5356,7 @@
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -5655,7 +5370,7 @@
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -5669,7 +5384,7 @@
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -5683,7 +5398,7 @@
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -5697,7 +5412,7 @@
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -5711,7 +5426,7 @@
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -5725,7 +5440,7 @@
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
@@ -5739,7 +5454,7 @@
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -5753,7 +5468,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -5767,7 +5482,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -5781,7 +5496,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -5795,7 +5510,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -5809,7 +5524,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -5823,7 +5538,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -5837,7 +5552,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -5851,7 +5566,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
@@ -5865,7 +5580,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -5879,7 +5594,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -5893,7 +5608,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
@@ -5907,7 +5622,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
@@ -5921,7 +5636,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -5935,7 +5650,7 @@
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
@@ -5949,7 +5664,7 @@
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -5963,7 +5678,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -5977,7 +5692,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
@@ -5991,7 +5706,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -6005,7 +5720,7 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -6019,7 +5734,7 @@
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -6033,7 +5748,7 @@
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
@@ -6047,7 +5762,7 @@
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
@@ -6061,7 +5776,7 @@
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -6075,7 +5790,7 @@
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -6089,7 +5804,7 @@
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
@@ -6103,7 +5818,7 @@
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
@@ -6117,7 +5832,7 @@
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
@@ -6131,7 +5846,7 @@
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
@@ -6145,7 +5860,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
@@ -6159,7 +5874,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -6173,7 +5888,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
@@ -6187,7 +5902,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
@@ -6201,7 +5916,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -6215,7 +5930,7 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -6229,7 +5944,7 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -6243,7 +5958,7 @@
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -6257,7 +5972,7 @@
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -6271,7 +5986,7 @@
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -6285,7 +6000,7 @@
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
@@ -6299,7 +6014,7 @@
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -6313,7 +6028,7 @@
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
@@ -6327,7 +6042,7 @@
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
@@ -6341,7 +6056,7 @@
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
@@ -6355,7 +6070,7 @@
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
@@ -6369,7 +6084,7 @@
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
@@ -6383,7 +6098,7 @@
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
@@ -6397,7 +6112,7 @@
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
@@ -6411,7 +6126,7 @@
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
@@ -6425,7 +6140,7 @@
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
@@ -6439,7 +6154,7 @@
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
@@ -6453,7 +6168,7 @@
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
@@ -6467,7 +6182,7 @@
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
@@ -6481,7 +6196,7 @@
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="13:24" x14ac:dyDescent="0.25">
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
@@ -6537,1619 +6252,1618 @@
     <mergeCell ref="N40:Q40"/>
     <mergeCell ref="N41:Q41"/>
     <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N43:Q43"/>
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="N45:Q45"/>
     <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="N49:Q49"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="8.42578125"/>
-    <col customWidth="1" min="8" max="8" width="6.5703125"/>
-    <col customWidth="1" min="9" max="9" width="6.140625"/>
-    <col customWidth="1" min="10" max="10" width="5.7109375"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="141" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="141" t="s">
+      <c r="J1" s="84" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="143" t="s">
+      <c r="L1" s="86" t="s">
         <v>90</v>
       </c>
       <c r="M1" s="4"/>
-      <c r="N1" s="141" t="s">
+      <c r="N1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="141" t="s">
+      <c r="O1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="141" t="s">
+      <c r="Q1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="141" t="s">
+      <c r="R1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="141" t="s">
+      <c r="T1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="141" t="s">
+      <c r="U1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="144"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="145" t="s">
+      <c r="W1" s="87"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="88" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="148"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="243"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="86" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="149" t="s">
+      <c r="O2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="149" t="s">
+      <c r="Q2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="149" t="s">
+      <c r="R2" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="150" t="s">
+      <c r="U2" s="90" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="145" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="88" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="246"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="143" t="s">
+      <c r="L3" s="86" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="154" t="s">
+      <c r="O3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="149" t="s">
+      <c r="Q3" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="149" t="s">
+      <c r="R3" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="155" t="s">
+      <c r="T3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="155" t="s">
+      <c r="U3" s="92" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="93" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="156" t="s">
+      <c r="F4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="159"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="249"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="143" t="s">
+      <c r="L4" s="86" t="s">
         <v>77</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="160" t="s">
+      <c r="N4" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="160" t="s">
+      <c r="O4" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="149" t="s">
+      <c r="Q4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="149" t="s">
+      <c r="R4" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="161" t="s">
+      <c r="T4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="161" t="s">
+      <c r="U4" s="95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="156" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="93" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="156" t="s">
+      <c r="F5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="164"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="252"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="143" t="s">
+      <c r="L5" s="86" t="s">
         <v>64</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="165" t="s">
+      <c r="N5" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="165" t="s">
+      <c r="O5" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" s="149" t="s">
+      <c r="Q5" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="149" t="s">
+      <c r="R5" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="166" t="s">
+      <c r="T5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="166" t="s">
+      <c r="U5" s="97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="167" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="98" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="255"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="143" t="s">
+      <c r="L6" s="86" t="s">
         <v>89</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="171" t="s">
+      <c r="N6" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="171" t="s">
+      <c r="O6" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="149" t="s">
+      <c r="Q6" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="149" t="s">
+      <c r="R6" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="172" t="s">
+      <c r="T6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="172" t="s">
+      <c r="U6" s="100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="167" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="98" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="173"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="258"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="143" t="s">
+      <c r="L7" s="86" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="176" t="s">
+      <c r="N7" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="176" t="s">
+      <c r="O7" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="165" t="s">
+      <c r="T7" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="165" t="s">
+      <c r="U7" s="96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="177" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="178" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="F8" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="259" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="143" t="s">
+      <c r="L8" s="86" t="s">
         <v>76</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="176" t="s">
+      <c r="N8" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="176" t="s">
+      <c r="O8" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="171" t="s">
+      <c r="T8" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="171" t="s">
+      <c r="U8" s="99" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="177" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="181"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="182"/>
+      <c r="F9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="262"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="264"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="143" t="s">
+      <c r="L9" s="86" t="s">
         <v>58</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="154" t="s">
+      <c r="N9" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="154" t="s">
+      <c r="O9" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="176" t="s">
+      <c r="T9" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="176" t="s">
+      <c r="U9" s="101" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="177" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="182"/>
+      <c r="F10" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="262"/>
+      <c r="H10" s="263"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="264"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="143" t="s">
+      <c r="L10" s="86" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="160" t="s">
+      <c r="N10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="160" t="s">
+      <c r="O10" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="176" t="s">
+      <c r="T10" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="176" t="s">
+      <c r="U10" s="101" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="177" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="181"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="182"/>
+      <c r="F11" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="262"/>
+      <c r="H11" s="263"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="264"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="143" t="s">
+      <c r="L11" s="86" t="s">
         <v>85</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="172" t="s">
+      <c r="N11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="172" t="s">
+      <c r="O11" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="155" t="s">
+      <c r="T11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="155" t="s">
+      <c r="U11" s="92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="177" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="181"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="182"/>
+      <c r="F12" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="262"/>
+      <c r="H12" s="263"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="264"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="176" t="s">
+      <c r="N12" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="176" t="s">
+      <c r="O12" s="101" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="177" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="181"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="182"/>
+      <c r="F13" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="262"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="264"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="176" t="s">
+      <c r="N13" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="176" t="s">
+      <c r="O13" s="101" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="177" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="181"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="182"/>
+      <c r="F14" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="262"/>
+      <c r="H14" s="263"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="264"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="P14" s="144"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="177" t="s">
+      <c r="P14" s="87"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="102" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185"/>
+      <c r="F15" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="265"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="267"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="P15" s="144"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="149" t="s">
+      <c r="P15" s="87"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="149" t="s">
+      <c r="B16" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="186" t="s">
+      <c r="G16" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="188"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="P16" s="144"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="150" t="s">
+      <c r="P16" s="87"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="150" t="s">
+      <c r="B17" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="90" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="189" t="s">
+      <c r="G17" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="239"/>
+      <c r="J17" s="240"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="P17" s="144"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="154" t="s">
+      <c r="P17" s="87"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="154" t="s">
+      <c r="C18" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="91" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="154" t="s">
+      <c r="F18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="192" t="s">
+      <c r="G18" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="143" t="s">
+      <c r="M18" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="143" t="s">
+      <c r="N18" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="143" t="s">
+      <c r="O18" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="143" t="s">
+      <c r="P18" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="195"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="160" t="s">
+      <c r="Q18" s="103"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="160" t="s">
+      <c r="C19" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="94" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="196" t="s">
+      <c r="G19" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="210"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="172" t="s">
+      <c r="M19" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="166" t="s">
+      <c r="O19" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="160" t="s">
+      <c r="P19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="176" t="s">
+      <c r="Q19" s="101" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="199" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="199" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="199" t="s">
+      <c r="B20" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="104" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="143" t="s">
+      <c r="F20" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="200" t="s">
+      <c r="G20" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="202"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="219"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="203" t="s">
+      <c r="M20" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="165" t="s">
+      <c r="N20" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="161" t="s">
+      <c r="O20" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="154" t="s">
+      <c r="P20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="149" t="s">
+      <c r="Q20" s="89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="172" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="172" t="s">
+      <c r="B21" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="100" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="143" t="s">
+      <c r="F21" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="200" t="s">
+      <c r="G21" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="202"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="219"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="204" t="s">
+      <c r="M21" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="171" t="s">
+      <c r="N21" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="205" t="s">
+      <c r="O21" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="206" t="s">
+      <c r="P21" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="155" t="s">
+      <c r="Q21" s="92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="171" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="171" t="s">
+      <c r="B22" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="99" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="143" t="s">
+      <c r="F22" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="200" t="s">
+      <c r="G22" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="202"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="219"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="207" t="s">
+      <c r="M22" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="208" t="s">
+      <c r="N22" s="112" t="s">
         <v>31</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23">
-      <c r="A23" s="171" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="171" t="s">
+      <c r="B23" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="99" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="143" t="s">
+      <c r="F23" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="200" t="s">
+      <c r="G23" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="202"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="219"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="P23" s="144"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="206" t="s">
+      <c r="P23" s="87"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="206" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="206" t="s">
+      <c r="B24" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="110" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="143" t="s">
+      <c r="F24" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="200" t="s">
+      <c r="G24" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="219"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="P24" s="144"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="154" t="s">
+      <c r="P24" s="87"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="154" t="s">
+      <c r="B25" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="91" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="200" t="s">
+      <c r="G25" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="202"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="219"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="P25" s="144"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="160" t="s">
+      <c r="P25" s="87"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="160" t="s">
+      <c r="B26" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="94" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="143" t="s">
+      <c r="F26" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="200" t="s">
+      <c r="G26" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="202"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="219"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="P26" s="144"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="149" t="s">
+      <c r="P26" s="87"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="149" t="s">
+      <c r="B27" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="149" t="s">
+      <c r="F27" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="186" t="s">
+      <c r="G27" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="236"/>
+      <c r="J27" s="237"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="P27" s="144"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="149" t="s">
+      <c r="P27" s="87"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="149" t="s">
+      <c r="B28" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="149" t="s">
+      <c r="D28" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="149" t="s">
+      <c r="F28" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="186" t="s">
+      <c r="G28" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="237"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="P28" s="144"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="155" t="s">
+      <c r="P28" s="87"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="155" t="s">
+      <c r="B29" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="92" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="155" t="s">
+      <c r="F29" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="209" t="s">
+      <c r="G29" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="211"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="213"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30">
-      <c r="A30" s="149" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="149" t="s">
+      <c r="B30" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="149" t="s">
+      <c r="D30" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="149" t="s">
+      <c r="F30" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="186" t="s">
+      <c r="G30" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="188"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="236"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31">
-      <c r="A31" s="149" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="149" t="s">
+      <c r="B31" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="149" t="s">
+      <c r="D31" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="149" t="s">
+      <c r="F31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="186" t="s">
+      <c r="G31" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="188"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="237"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32">
-      <c r="A32" s="212" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="212" t="s">
+      <c r="B32" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="113" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="161" t="s">
+      <c r="F32" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="213" t="s">
+      <c r="G32" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="231"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="166" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="166" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="166" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="166" t="s">
+      <c r="B33" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="97" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="166" t="s">
+      <c r="F33" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="216" t="s">
+      <c r="G33" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="218"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="234"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="149" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="149" t="s">
+      <c r="B34" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="143" t="s">
+      <c r="F34" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="200" t="s">
+      <c r="G34" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="202"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="219"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35">
-      <c r="A35" s="149" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="149" t="s">
+      <c r="B35" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="143" t="s">
+      <c r="F35" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="200" t="s">
+      <c r="G35" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="202"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="219"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36">
-      <c r="A36" s="149" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="149" t="s">
+      <c r="C36" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="89" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="149" t="s">
+      <c r="F36" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="186" t="s">
+      <c r="G36" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="188"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37">
-      <c r="A37" s="199" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="199" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="199" t="s">
+      <c r="B37" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="104" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="143" t="s">
+      <c r="F37" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="200" t="s">
+      <c r="G37" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="202"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="219"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38">
-      <c r="A38" s="172" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="172" t="s">
+      <c r="C38" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="100" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="172" t="s">
+      <c r="F38" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="219" t="s">
+      <c r="G38" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="221"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="222"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39">
-      <c r="A39" s="165" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="165" t="s">
+      <c r="C39" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="165" t="s">
+      <c r="F39" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="222" t="s">
+      <c r="G39" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="224"/>
+      <c r="H39" s="224"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="225"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40">
-      <c r="A40" s="171" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="171" t="s">
+      <c r="B40" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="171" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="171" t="s">
+      <c r="C40" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="171" t="s">
+      <c r="F40" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="225" t="s">
+      <c r="G40" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="226"/>
-      <c r="I40" s="226"/>
-      <c r="J40" s="227"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="227"/>
+      <c r="J40" s="228"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="176" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="176" t="s">
+      <c r="B41" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="101" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="176" t="s">
+      <c r="F41" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="228" t="s">
+      <c r="G41" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="229"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="230"/>
+      <c r="H41" s="215"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="216"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="176" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="176" t="s">
+      <c r="B42" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="101" t="s">
         <v>52</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="176" t="s">
+      <c r="F42" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="229"/>
-      <c r="I42" s="229"/>
-      <c r="J42" s="230"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="216"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43">
-      <c r="A43" s="176" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="176" t="s">
+      <c r="C43" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="176" t="s">
+      <c r="F43" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="228" t="s">
+      <c r="G43" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="229"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="230"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="216"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="176" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="176" t="s">
+      <c r="C44" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="176" t="s">
+      <c r="F44" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="228" t="s">
+      <c r="G44" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="229"/>
-      <c r="I44" s="229"/>
-      <c r="J44" s="230"/>
+      <c r="H44" s="215"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="216"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="176" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="176" t="s">
+      <c r="B45" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="176" t="s">
+      <c r="C45" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="176" t="s">
+      <c r="F45" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="228" t="s">
+      <c r="G45" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="229"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="230"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="216"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="176" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="176" t="s">
+      <c r="C46" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="101" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="176" t="s">
+      <c r="F46" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="228" t="s">
+      <c r="G46" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="229"/>
-      <c r="I46" s="229"/>
-      <c r="J46" s="230"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47">
-      <c r="A47" s="154" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="154" t="s">
+      <c r="B47" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="154" t="s">
+      <c r="C47" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="91" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="154" t="s">
+      <c r="F47" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="192" t="s">
+      <c r="G47" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="193"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="206"/>
+      <c r="J47" s="207"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
     </row>
-    <row r="48">
-      <c r="A48" s="160" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="160" t="s">
+      <c r="C48" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="94" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="196" t="s">
+      <c r="G48" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="197"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="210"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49">
-      <c r="A49" s="155" t="s">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="155" t="s">
+      <c r="B49" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="92" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="155" t="s">
+      <c r="F49" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="209" t="s">
+      <c r="G49" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="210"/>
-      <c r="I49" s="210"/>
-      <c r="J49" s="211"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="212"/>
+      <c r="J49" s="213"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8163,28 +7877,28 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="144"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51">
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-      <c r="O51" s="144"/>
-      <c r="P51" s="144"/>
-      <c r="Q51" s="144"/>
-      <c r="R51" s="144"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -8218,44 +7932,43 @@
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
     <mergeCell ref="G42:J42"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="200" verticalDpi="200" copies="0"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="M29" activeCellId="0" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" width="27.42578125"/>
-    <col customWidth="1" min="8" max="8" width="15.5703125"/>
-    <col customWidth="1" min="12" max="12" width="11.42578125"/>
-    <col customWidth="1" min="18" max="18" width="9.140625"/>
-    <col customWidth="1" min="20" max="20" width="11.42578125"/>
-    <col customWidth="1" min="21" max="22" width="9.140625"/>
-    <col customWidth="1" min="24" max="24" width="13.7109375"/>
-    <col customWidth="1" min="26" max="27" width="9.140625"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75">
-      <c r="A1" s="231" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="4"/>
@@ -8271,318 +7984,318 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="231" t="s">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="114" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="231" t="s">
+      <c r="H2" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="231" t="s">
+      <c r="I2" s="114" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="232" t="s">
+      <c r="K2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="202"/>
-      <c r="N2" s="233" t="s">
+      <c r="L2" s="106"/>
+      <c r="N2" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="234"/>
-      <c r="Q2" s="235" t="s">
+      <c r="O2" s="117"/>
+      <c r="Q2" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="236" t="s">
+      <c r="S2" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="234"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="237" t="s">
+      <c r="T2" s="117"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="239" t="s">
+      <c r="D3" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="240" t="s">
+      <c r="E3" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="241" t="s">
+      <c r="F3" s="124" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="200" t="s">
+      <c r="H3" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="242" t="s">
+      <c r="I3" s="125" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="243" t="s">
+      <c r="K3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="244" t="s">
+      <c r="L3" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="245" t="s">
+      <c r="N3" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="246" t="s">
+      <c r="O3" s="129" t="s">
         <v>105</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="247" t="s">
+      <c r="Q3" s="130" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="4"/>
-      <c r="S3" s="243" t="s">
+      <c r="S3" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="248" t="s">
+      <c r="T3" s="131" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="249" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="200" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="251" t="s">
+      <c r="D4" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="143" t="s">
-        <v>89</v>
+      <c r="F4" s="140" t="s">
+        <v>64</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="244" t="s">
+      <c r="I4" s="127" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="141" t="s">
+      <c r="K4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="244" t="s">
+      <c r="L4" s="127" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="246" t="s">
+      <c r="O4" s="129" t="s">
         <v>109</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="141" t="s">
+      <c r="S4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="248" t="s">
+      <c r="T4" s="131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="252" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="200" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="251" t="s">
+      <c r="D5" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="143" t="s">
-        <v>75</v>
+      <c r="F5" s="86" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="200" t="s">
+      <c r="H5" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="244" t="s">
+      <c r="I5" s="127" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="141" t="s">
+      <c r="K5" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="244" t="s">
+      <c r="L5" s="127" t="s">
         <v>72</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="143" t="s">
+      <c r="N5" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="246" t="s">
+      <c r="O5" s="129" t="s">
         <v>113</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="252" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="200" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="143" t="s">
-        <v>43</v>
+      <c r="D6" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>75</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="200" t="s">
+      <c r="H6" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="244" t="s">
+      <c r="I6" s="127" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="143" t="s">
+      <c r="N6" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="O6" s="246" t="s">
+      <c r="O6" s="129" t="s">
         <v>118</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="254" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="255" t="s">
+      <c r="D7" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="256" t="s">
-        <v>77</v>
+      <c r="F7" s="86" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="200" t="s">
+      <c r="H7" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="257" t="s">
+      <c r="I7" s="137" t="s">
         <v>100</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="143" t="s">
+      <c r="N7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="246" t="s">
+      <c r="O7" s="129" t="s">
         <v>122</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="252" t="s">
+      <c r="B8" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="258" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="259" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="260" t="s">
-        <v>64</v>
+      <c r="D8" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>77</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="200" t="s">
+      <c r="H8" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="141" t="s">
         <v>99</v>
       </c>
       <c r="J8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="143" t="s">
+      <c r="N8" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="246" t="s">
+      <c r="O8" s="129" t="s">
         <v>126</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="239" t="s">
+      <c r="H9" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="244" t="s">
+      <c r="I9" s="127" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="143" t="s">
+      <c r="N9" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="246" t="s">
+      <c r="O9" s="129" t="s">
         <v>129</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -8597,7 +8310,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" ht="15.75">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -8612,148 +8325,144 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" ht="15.75">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="262" t="s">
+      <c r="G12" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="202"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="4"/>
-      <c r="K12" s="263" t="s">
+      <c r="K12" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="264" t="s">
+      <c r="L12" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="265" t="s">
+      <c r="M12" s="145" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="266" t="s">
+      <c r="G13" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="266" t="s">
+      <c r="K13" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="266" t="s">
+      <c r="L13" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="266" t="s">
+      <c r="M13" s="146" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="267" t="s">
+      <c r="K14" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="L14" s="267" t="s">
+      <c r="L14" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="267" t="s">
+      <c r="M14" s="147" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="267" t="s">
+      <c r="G15" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="103"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="267" t="s">
+      <c r="G16" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="143" t="s">
+      <c r="H16" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="267" t="s">
+      <c r="G17" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="86" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="143" t="s">
+      <c r="G18" s="147"/>
+      <c r="H18" s="86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="195"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="267" t="s">
+      <c r="G19" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="143" t="s">
+      <c r="H19" s="86" t="s">
         <v>127</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="195"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="195"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="I21" s="4"/>
@@ -8765,13 +8474,13 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="195"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -8779,13 +8488,13 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -8797,13 +8506,13 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24">
-      <c r="A24" s="195"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -8815,13 +8524,13 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -8833,31 +8542,31 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="195"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-    </row>
-    <row r="28">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
@@ -8865,14 +8574,12 @@
       <c r="S32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="O33" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="200" verticalDpi="200" copies="0"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>